--- a/data/OECD_betterLifeIndex.xlsx
+++ b/data/OECD_betterLifeIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Projects\pythonProject\CSC3833_Coursework_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB6BE74-8D80-4799-A6CD-66040A724D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D30921-B64E-4088-B138-960D765D49FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="2625" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OECD.Stat export" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="127">
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="BLI" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Better Life Index&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indicateur du vivre mieux&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CAN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Canada&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Canada&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="COL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Colombia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Colombie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CRI" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Costa Rica&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Costa Rica&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GRC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Greece&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Grèce&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Iceland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Islande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="IRL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Ireland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Irlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Israel&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Israël&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LUX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Luxembourg&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Luxembourg&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NZL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;New Zealand&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Nouvelle-Zélande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="POL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Poland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pologne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovenia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Slovénie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SWE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Sweden&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suède&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TUR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Türkiye&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Türkiye&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OECD" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;OECD - Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;OCDE - Total&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NMEC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Non-OECD Economies&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Économies non-OCDE&lt;/Name&gt;&lt;ChildMember Code="BRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Brazil&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Brésil&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="RUS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Russia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Russie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ZAF" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;South Africa&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Afrique du Sud&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="INDICATOR" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Indicator&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indicateur&lt;/Name&gt;&lt;Member Code="HO" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Housing&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Logement&lt;/Name&gt;&lt;ChildMember Code="HO_BASE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0" IsDisplayed="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Dwellings without basic facilities&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Logements sans équipements sanitaires de base&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="HO_HISH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Housing expenditure&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût du logement&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="HO_NUMR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Rooms per person&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Nombre de pièces par personne&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="IW" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenu&lt;/Name&gt;&lt;ChildMember Code="IW_HADI" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Household net adjusted disposable income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenu disponible ajusté net des ménages&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="IW_HNFW" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Household net wealth&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Patrimoine net des ménages&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="JE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Jobs&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Emploi&lt;/Name&gt;&lt;ChildMember Code="JE_LMIS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour market insecurity&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Insécurité sur le marché du travail&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="JE_EMPL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Employment rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux d’emploi&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="JE_LTUR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Long-term unemployment rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux de chômage de longue durée&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="JE_PEARN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Personal earnings&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenus moyens d’activité&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="SC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Community&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Liens sociaux&lt;/Name&gt;&lt;ChildMember Code="SC_SNTWS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Quality of support network&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Qualité du réseau social&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="ES" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Enseignement&lt;/Name&gt;&lt;ChildMember Code="ES_EDUA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Educational attainment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Niveau d’instruction&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ES_STCS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Student skills&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Compétences des élèves&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ES_EDUEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Years in education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Années de scolarité&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="EQ" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Environment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Environnement&lt;/Name&gt;&lt;ChildMember Code="EQ_AIRP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Air pollution&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pollution atmosphérique&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="EQ_WATER" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Water quality&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Qualité de l’eau&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="CG" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Civic engagement&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Engagement civique&lt;/Name&gt;&lt;ChildMember Code="CG_SENG" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Stakeholder engagement for developing regulations&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Participation des parties prenantes à l’élaboration de la réglementation&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="CG_VOTO" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Voter turnout&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Participation électorale&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="HS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Health&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Santé&lt;/Name&gt;&lt;ChildMember Code="HS_LEB" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Life expectancy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espérance de vie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="HS_SFRH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Self-reported health&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Auto-évaluation de l’état de santé&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="SW" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Life Satisfaction&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Satisfaction&lt;/Name&gt;&lt;ChildMember Code="SW_LIFS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Life satisfaction&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Satisfaction à l’égard de la vie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="PS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Safety&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Sécurité&lt;/Name&gt;&lt;ChildMember Code="PS_FSAFEN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Feeling safe walking alone at night&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Se sentir en sécurité quand on marche seul la nuit&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="PS_REPH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Homicide rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux d’homicides&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="WL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Work-Life Balance&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Équilibre travail-vie&lt;/Name&gt;&lt;ChildMember Code="WL_EWLH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Employees working very long hours&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Horaires de travail lourds&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="WL_TNOW" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Time devoted to leisure and personal care&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps consacré aux loisirs et à soi&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="MEASURE" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Measure&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mesure&lt;/Name&gt;&lt;Member Code="L" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="INEQUALITY" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Inequality&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Inégalité&lt;/Name&gt;&lt;Member Code="TOT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Total&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Men&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Homme&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="WMN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Women&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Femme&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HGH" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;High&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Haut&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LW" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Low&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Bas&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="INDICATOR" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" CommonCode="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="INEQUALITY" /&gt;&lt;Dimension Code="MEASURE" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;-1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;false&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=86595&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Africa</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -783,6 +789,27 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -864,41 +891,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1255,128 +1254,128 @@
       <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="1:27" ht="14.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="34"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="43"/>
     </row>
     <row r="4" spans="1:27" ht="14.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="34"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="43"/>
     </row>
     <row r="5" spans="1:27" ht="42.75">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="35" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="35" t="s">
+      <c r="O5" s="45"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="35" t="s">
+      <c r="R5" s="46"/>
+      <c r="S5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="35" t="s">
+      <c r="T5" s="46"/>
+      <c r="U5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="37"/>
+      <c r="V5" s="46"/>
       <c r="W5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="X5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="35" t="s">
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="37"/>
+      <c r="AA5" s="46"/>
     </row>
     <row r="6" spans="1:27" ht="128.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1451,11 +1450,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="57">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="9" t="s">
         <v>43</v>
       </c>
@@ -1530,10 +1529,10 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="10" t="s">
         <v>51</v>
       </c>
@@ -1611,10 +1610,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
         <v>51</v>
       </c>
@@ -1692,10 +1691,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="10" t="s">
         <v>51</v>
       </c>
@@ -1773,10 +1772,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="10" t="s">
         <v>51</v>
       </c>
@@ -1854,10 +1853,10 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="10" t="s">
         <v>51</v>
       </c>
@@ -1935,10 +1934,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="10" t="s">
         <v>51</v>
       </c>
@@ -2016,10 +2015,10 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
@@ -2097,10 +2096,10 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="10" t="s">
         <v>51</v>
       </c>
@@ -2178,10 +2177,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="10" t="s">
         <v>51</v>
       </c>
@@ -2259,10 +2258,10 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15.75">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
@@ -2340,10 +2339,10 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="10" t="s">
         <v>51</v>
       </c>
@@ -2421,10 +2420,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="15.75">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
@@ -2502,10 +2501,10 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15.75">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="10" t="s">
         <v>51</v>
       </c>
@@ -2583,10 +2582,10 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="15.75">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
@@ -2664,10 +2663,10 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="15.75">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="10" t="s">
         <v>51</v>
       </c>
@@ -2745,10 +2744,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="15.75">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="10" t="s">
         <v>51</v>
       </c>
@@ -2826,10 +2825,10 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="15.75">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="10" t="s">
         <v>51</v>
       </c>
@@ -2907,10 +2906,10 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="15.75">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="10" t="s">
         <v>51</v>
       </c>
@@ -2988,10 +2987,10 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="15.75">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
@@ -3069,10 +3068,10 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="15.75">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
@@ -3150,10 +3149,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15.75">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="10" t="s">
         <v>51</v>
       </c>
@@ -3231,10 +3230,10 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="15.75">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="10" t="s">
         <v>51</v>
       </c>
@@ -3312,10 +3311,10 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="15.75">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
@@ -3393,10 +3392,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="15.75">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10" t="s">
         <v>51</v>
       </c>
@@ -3474,10 +3473,10 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="15.75">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="10" t="s">
         <v>51</v>
       </c>
@@ -3555,10 +3554,10 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="15.75">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="10" t="s">
         <v>51</v>
       </c>
@@ -3636,10 +3635,10 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="15.75">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="10" t="s">
         <v>51</v>
       </c>
@@ -3717,10 +3716,10 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="15.75">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="10" t="s">
         <v>51</v>
       </c>
@@ -3798,10 +3797,10 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="15.75">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="10" t="s">
         <v>51</v>
       </c>
@@ -3879,10 +3878,10 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="15.75">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="10" t="s">
         <v>51</v>
       </c>
@@ -3960,10 +3959,10 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="15.75">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="10" t="s">
         <v>51</v>
       </c>
@@ -4041,10 +4040,10 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="15.75">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="10" t="s">
         <v>51</v>
       </c>
@@ -4122,10 +4121,10 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="15.75">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="10" t="s">
         <v>51</v>
       </c>
@@ -4203,10 +4202,10 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="15.75">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="10" t="s">
         <v>51</v>
       </c>
@@ -4284,10 +4283,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="15.75">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="10" t="s">
         <v>51</v>
       </c>
@@ -4365,10 +4364,10 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="15.75">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="10" t="s">
         <v>51</v>
       </c>
@@ -4446,10 +4445,10 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="15.75">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="10" t="s">
         <v>51</v>
       </c>
@@ -4527,10 +4526,10 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="15.75">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="10" t="s">
         <v>51</v>
       </c>
@@ -4608,10 +4607,10 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="15.75">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="10" t="s">
         <v>51</v>
       </c>
@@ -4689,10 +4688,10 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="15.75">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="10" t="s">
         <v>51</v>
       </c>
@@ -4770,7 +4769,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="15.75">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -4853,7 +4852,7 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="15.75">
-      <c r="A49" s="14"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
@@ -4934,7 +4933,7 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="15.75">
-      <c r="A50" s="15"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="3" t="s">
         <v>95</v>
       </c>
@@ -5143,8 +5142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5179,3571 +5178,3571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="41">
+      <c r="C2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="14">
         <v>19.399999999999999</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="41">
+      <c r="E2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="14">
         <v>37433</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="14">
         <v>528768</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="14">
         <v>3.1</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="14">
         <v>73</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="14">
         <v>1</v>
       </c>
-      <c r="K2" s="41">
+      <c r="K2" s="14">
         <v>55206</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="14">
         <v>93</v>
       </c>
-      <c r="M2" s="41">
+      <c r="M2" s="14">
         <v>84</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="14">
         <v>499</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="14">
         <v>20</v>
       </c>
-      <c r="P2" s="41">
+      <c r="P2" s="14">
         <v>6.7</v>
       </c>
-      <c r="Q2" s="41">
+      <c r="Q2" s="14">
         <v>92</v>
       </c>
-      <c r="R2" s="41">
+      <c r="R2" s="14">
         <v>2.7</v>
       </c>
-      <c r="S2" s="41">
+      <c r="S2" s="14">
         <v>92</v>
       </c>
-      <c r="T2" s="41">
+      <c r="T2" s="14">
         <v>83</v>
       </c>
-      <c r="U2" s="41">
+      <c r="U2" s="14">
         <v>85</v>
       </c>
-      <c r="V2" s="41">
+      <c r="V2" s="14">
         <v>7.1</v>
       </c>
-      <c r="W2" s="41">
+      <c r="W2" s="14">
         <v>67</v>
       </c>
-      <c r="X2" s="41">
+      <c r="X2" s="14">
         <v>0.9</v>
       </c>
-      <c r="Y2" s="41">
+      <c r="Y2" s="14">
         <v>12.5</v>
       </c>
-      <c r="Z2" s="41">
+      <c r="Z2" s="14">
         <v>14.36</v>
       </c>
-      <c r="AA2" s="40">
+      <c r="AA2" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="17">
         <v>0.8</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="15">
         <v>20.8</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="15">
         <v>1.6</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="15">
         <v>37001</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="15">
         <v>309637</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="15">
         <v>72</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="15">
         <v>1.3</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="15">
         <v>53132</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="15">
         <v>92</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="15">
         <v>86</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="15">
         <v>491</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="15">
         <v>17</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="15">
         <v>12.2</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="15">
         <v>92</v>
       </c>
-      <c r="R3" s="42">
+      <c r="R3" s="15">
         <v>1.3</v>
       </c>
-      <c r="S3" s="42">
+      <c r="S3" s="15">
         <v>76</v>
       </c>
-      <c r="T3" s="42">
+      <c r="T3" s="15">
         <v>82</v>
       </c>
-      <c r="U3" s="42">
+      <c r="U3" s="15">
         <v>71</v>
       </c>
-      <c r="V3" s="42">
+      <c r="V3" s="15">
         <v>7.2</v>
       </c>
-      <c r="W3" s="42">
+      <c r="W3" s="15">
         <v>86</v>
       </c>
-      <c r="X3" s="42">
+      <c r="X3" s="15">
         <v>0.5</v>
       </c>
-      <c r="Y3" s="42">
+      <c r="Y3" s="15">
         <v>5.3</v>
       </c>
-      <c r="Z3" s="42">
+      <c r="Z3" s="15">
         <v>14.51</v>
       </c>
-      <c r="AA3" s="40">
+      <c r="AA3" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="16">
         <v>0.7</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="14">
         <v>20</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="14">
         <v>2.1</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="14">
         <v>34884</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="14">
         <v>447607</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="14">
         <v>2.4</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="14">
         <v>65</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="14">
         <v>54327</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="14">
         <v>90</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="14">
         <v>80</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="14">
         <v>500</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="14">
         <v>19</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="14">
         <v>12.8</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="14">
         <v>79</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="14">
         <v>2</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="14">
         <v>88</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="14">
         <v>82.1</v>
       </c>
-      <c r="U4" s="41">
+      <c r="U4" s="14">
         <v>74</v>
       </c>
-      <c r="V4" s="41">
+      <c r="V4" s="14">
         <v>6.8</v>
       </c>
-      <c r="W4" s="41">
+      <c r="W4" s="14">
         <v>56</v>
       </c>
-      <c r="X4" s="41">
+      <c r="X4" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y4" s="41">
+      <c r="Y4" s="14">
         <v>4.3</v>
       </c>
-      <c r="Z4" s="41">
+      <c r="Z4" s="14">
         <v>15.52</v>
       </c>
-      <c r="AA4" s="40">
+      <c r="AA4" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="17">
         <v>0.2</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="15">
         <v>22.9</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="15">
         <v>2.6</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="15">
         <v>34421</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="15">
         <v>478240</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="15">
         <v>3.8</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="15">
         <v>70</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="15">
         <v>0.5</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="15">
         <v>55342</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="15">
         <v>93</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="15">
         <v>92</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="15">
         <v>517</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="15">
         <v>17</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="15">
         <v>7.1</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="15">
         <v>90</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="15">
         <v>2.9</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="15">
         <v>68</v>
       </c>
-      <c r="T5" s="42">
+      <c r="T5" s="15">
         <v>82.1</v>
       </c>
-      <c r="U5" s="42">
+      <c r="U5" s="15">
         <v>89</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="15">
         <v>7</v>
       </c>
-      <c r="W5" s="42">
+      <c r="W5" s="15">
         <v>78</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="15">
         <v>1.2</v>
       </c>
-      <c r="Y5" s="42">
+      <c r="Y5" s="15">
         <v>3.3</v>
       </c>
-      <c r="Z5" s="42">
+      <c r="Z5" s="15">
         <v>14.57</v>
       </c>
-      <c r="AA5" s="40">
+      <c r="AA5" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="16">
         <v>9.4</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="14">
         <v>1.9</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="41">
+      <c r="F6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="14">
         <v>135787</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="14">
         <v>7</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="14">
         <v>56</v>
       </c>
-      <c r="J6" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="41">
+      <c r="J6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="14">
         <v>26729</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="14">
         <v>88</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="14">
         <v>67</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="14">
         <v>438</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="14">
         <v>17</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="14">
         <v>23.4</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="14">
         <v>62</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="14">
         <v>1.3</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="14">
         <v>47</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="14">
         <v>80.599999999999994</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U6" s="14">
         <v>60</v>
       </c>
-      <c r="V6" s="41">
+      <c r="V6" s="14">
         <v>6.2</v>
       </c>
-      <c r="W6" s="41">
+      <c r="W6" s="14">
         <v>41</v>
       </c>
-      <c r="X6" s="41">
+      <c r="X6" s="14">
         <v>2.4</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Y6" s="14">
         <v>7.7</v>
       </c>
-      <c r="Z6" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA6" s="40">
+      <c r="Z6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="17">
         <v>12.3</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="42">
+      <c r="D7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="42">
+      <c r="F7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="15">
         <v>58</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K7" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="42">
+      <c r="K7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="15">
         <v>80</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="15">
         <v>59</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="15">
         <v>406</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="15">
         <v>14</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="15">
         <v>22.6</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="15">
         <v>82</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="15">
         <v>1.4</v>
       </c>
-      <c r="S7" s="42">
-        <v>53</v>
-      </c>
-      <c r="T7" s="42">
+      <c r="S7" s="15">
+        <v>53</v>
+      </c>
+      <c r="T7" s="15">
         <v>76.7</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="15">
         <v>80</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="15">
         <v>5.7</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="15">
         <v>50</v>
       </c>
-      <c r="X7" s="42">
+      <c r="X7" s="15">
         <v>23.1</v>
       </c>
-      <c r="Y7" s="42">
+      <c r="Y7" s="15">
         <v>23.7</v>
       </c>
-      <c r="Z7" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA7" s="40">
+      <c r="Z7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA7" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="14">
         <v>17</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="14">
         <v>1.2</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="14">
         <v>16517</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="41">
+      <c r="G8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="14">
         <v>55</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="14">
         <v>1.5</v>
       </c>
-      <c r="K8" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="41">
+      <c r="K8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="14">
         <v>82</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="14">
         <v>43</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="14">
         <v>415</v>
       </c>
-      <c r="O8" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="41">
+      <c r="O8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="14">
         <v>17.5</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="14">
         <v>87</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="14">
         <v>1.8</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="14">
         <v>66</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="14">
         <v>80.5</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="14">
         <v>73</v>
       </c>
-      <c r="V8" s="41">
+      <c r="V8" s="14">
         <v>6.3</v>
       </c>
-      <c r="W8" s="41">
+      <c r="W8" s="14">
         <v>47</v>
       </c>
-      <c r="X8" s="41">
+      <c r="X8" s="14">
         <v>10</v>
       </c>
-      <c r="Y8" s="41">
+      <c r="Y8" s="14">
         <v>22</v>
       </c>
-      <c r="Z8" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA8" s="40">
+      <c r="Z8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA8" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="17">
         <v>0.5</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="15">
         <v>23.4</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="15">
         <v>1.5</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="15">
         <v>26664</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="42">
+      <c r="G9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="15">
         <v>74</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="15">
         <v>0.6</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="15">
         <v>29885</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="15">
         <v>96</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="15">
         <v>94</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="15">
         <v>495</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="15">
         <v>18</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="15">
         <v>17</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="15">
         <v>89</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="15">
         <v>1.6</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="15">
         <v>62</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="15">
         <v>79.3</v>
       </c>
-      <c r="U9" s="42">
+      <c r="U9" s="15">
         <v>62</v>
       </c>
-      <c r="V9" s="42">
+      <c r="V9" s="15">
         <v>6.9</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="15">
         <v>77</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="15">
         <v>0.7</v>
       </c>
-      <c r="Y9" s="42">
+      <c r="Y9" s="15">
         <v>4.5</v>
       </c>
-      <c r="Z9" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA9" s="40">
+      <c r="Z9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA9" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="16">
         <v>0.5</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="14">
         <v>23.3</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="14">
         <v>1.9</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="14">
         <v>33774</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="14">
         <v>149864</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="14">
         <v>4.5</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="14">
         <v>74</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="14">
         <v>0.9</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="14">
         <v>58430</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="14">
         <v>95</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="14">
         <v>82</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="14">
         <v>501</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="14">
         <v>19</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="14">
         <v>10</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="14">
         <v>93</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="14">
         <v>2</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="14">
         <v>85</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="14">
         <v>81.5</v>
       </c>
-      <c r="U10" s="41">
+      <c r="U10" s="14">
         <v>70</v>
       </c>
-      <c r="V10" s="41">
+      <c r="V10" s="14">
         <v>7.5</v>
       </c>
-      <c r="W10" s="41">
+      <c r="W10" s="14">
         <v>85</v>
       </c>
-      <c r="X10" s="41">
+      <c r="X10" s="14">
         <v>0.5</v>
       </c>
-      <c r="Y10" s="41">
+      <c r="Y10" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z10" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA10" s="40">
+      <c r="Z10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="17">
         <v>5.7</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="15">
         <v>17</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="15">
         <v>1.7</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="15">
         <v>23784</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="15">
         <v>188627</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="15">
         <v>5.4</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="15">
         <v>74</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="15">
         <v>1.2</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="15">
         <v>30720</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="15">
         <v>95</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="15">
         <v>91</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="15">
         <v>526</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="15">
         <v>18</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="15">
         <v>5.9</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="15">
         <v>86</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="15">
         <v>2.7</v>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="15">
         <v>64</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="15">
         <v>78.8</v>
       </c>
-      <c r="U11" s="42">
+      <c r="U11" s="15">
         <v>57</v>
       </c>
-      <c r="V11" s="42">
+      <c r="V11" s="15">
         <v>6.5</v>
       </c>
-      <c r="W11" s="42">
+      <c r="W11" s="15">
         <v>79</v>
       </c>
-      <c r="X11" s="42">
+      <c r="X11" s="15">
         <v>1.9</v>
       </c>
-      <c r="Y11" s="42">
+      <c r="Y11" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z11" s="42">
+      <c r="Z11" s="15">
         <v>14.98</v>
       </c>
-      <c r="AA11" s="40">
+      <c r="AA11" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="16">
         <v>0.4</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="14">
         <v>23.1</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="14">
         <v>1.9</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="14">
         <v>33471</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="14">
         <v>230032</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="14">
         <v>72</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="14">
         <v>1.2</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="14">
         <v>46230</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="14">
         <v>96</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="14">
         <v>91</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="14">
         <v>516</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="14">
         <v>20</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="14">
         <v>5.5</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="14">
         <v>97</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="14">
         <v>69</v>
       </c>
-      <c r="T12" s="41">
+      <c r="T12" s="14">
         <v>82.1</v>
       </c>
-      <c r="U12" s="41">
+      <c r="U12" s="14">
         <v>68</v>
       </c>
-      <c r="V12" s="41">
+      <c r="V12" s="14">
         <v>7.9</v>
       </c>
-      <c r="W12" s="41">
+      <c r="W12" s="14">
         <v>88</v>
       </c>
-      <c r="X12" s="41">
+      <c r="X12" s="14">
         <v>1.2</v>
       </c>
-      <c r="Y12" s="41">
+      <c r="Y12" s="14">
         <v>3.6</v>
       </c>
-      <c r="Z12" s="41">
+      <c r="Z12" s="14">
         <v>15.17</v>
       </c>
-      <c r="AA12" s="40">
+      <c r="AA12" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="17">
         <v>0.5</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="15">
         <v>20.7</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="15">
         <v>1.8</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="15">
         <v>34375</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="15">
         <v>298639</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="15">
         <v>3.1</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="15">
         <v>65</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="15">
         <v>2.9</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="15">
         <v>45581</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="15">
         <v>94</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="15">
         <v>81</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="15">
         <v>494</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="15">
         <v>17</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="15">
         <v>11.4</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="15">
         <v>78</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="15">
         <v>2.1</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="15">
         <v>75</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="15">
         <v>82.9</v>
       </c>
-      <c r="U13" s="42">
+      <c r="U13" s="15">
         <v>67</v>
       </c>
-      <c r="V13" s="42">
+      <c r="V13" s="15">
         <v>6.7</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="15">
         <v>74</v>
       </c>
-      <c r="X13" s="42">
+      <c r="X13" s="15">
         <v>0.4</v>
       </c>
-      <c r="Y13" s="42">
+      <c r="Y13" s="15">
         <v>7.7</v>
       </c>
-      <c r="Z13" s="42">
+      <c r="Z13" s="15">
         <v>16.2</v>
       </c>
-      <c r="AA13" s="40">
+      <c r="AA13" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="16">
         <v>0.1</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="14">
         <v>20</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="14">
         <v>1.8</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="14">
         <v>38971</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="14">
         <v>304317</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="14">
         <v>1.4</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="14">
         <v>77</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="14">
         <v>1.2</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="14">
         <v>53745</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="14">
         <v>90</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="14">
         <v>86</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="14">
         <v>500</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="14">
         <v>18</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="14">
         <v>12</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="14">
         <v>91</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="14">
         <v>1.8</v>
       </c>
-      <c r="S14" s="41">
+      <c r="S14" s="14">
         <v>76</v>
       </c>
-      <c r="T14" s="41">
+      <c r="T14" s="14">
         <v>81.400000000000006</v>
       </c>
-      <c r="U14" s="41">
+      <c r="U14" s="14">
         <v>66</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="14">
         <v>7.3</v>
       </c>
-      <c r="W14" s="41">
+      <c r="W14" s="14">
         <v>76</v>
       </c>
-      <c r="X14" s="41">
+      <c r="X14" s="14">
         <v>0.4</v>
       </c>
-      <c r="Y14" s="41">
+      <c r="Y14" s="14">
         <v>3.9</v>
       </c>
-      <c r="Z14" s="41">
+      <c r="Z14" s="14">
         <v>15.62</v>
       </c>
-      <c r="AA14" s="40">
+      <c r="AA14" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="17">
         <v>0.4</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="15">
         <v>21.8</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="15">
         <v>1.2</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="15">
         <v>20791</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="15">
         <v>148323</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="15">
         <v>21.7</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="15">
         <v>56</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="15">
         <v>10.8</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="15">
         <v>27207</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="15">
         <v>78</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="15">
         <v>76</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="15">
         <v>453</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="15">
         <v>19</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="15">
         <v>14.5</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="15">
         <v>67</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="15">
         <v>1.8</v>
       </c>
-      <c r="S15" s="42">
+      <c r="S15" s="15">
         <v>58</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="15">
         <v>81.7</v>
       </c>
-      <c r="U15" s="42">
+      <c r="U15" s="15">
         <v>79</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V15" s="15">
         <v>5.8</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="15">
         <v>69</v>
       </c>
-      <c r="X15" s="42">
+      <c r="X15" s="15">
         <v>1</v>
       </c>
-      <c r="Y15" s="42">
+      <c r="Y15" s="15">
         <v>4.5</v>
       </c>
-      <c r="Z15" s="42">
+      <c r="Z15" s="15">
         <v>15.03</v>
       </c>
-      <c r="AA15" s="40">
+      <c r="AA15" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="16">
         <v>3.5</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="14">
         <v>19.899999999999999</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="14">
         <v>1.4</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="14">
         <v>21026</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="14">
         <v>150296</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="14">
         <v>3.8</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="14">
         <v>70</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="14">
         <v>1.2</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="14">
         <v>25409</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="14">
         <v>94</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="14">
         <v>86</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="14">
         <v>479</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="14">
         <v>16</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="14">
         <v>16.7</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="14">
         <v>81</v>
       </c>
-      <c r="R16" s="41">
+      <c r="R16" s="14">
         <v>1.2</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="14">
         <v>70</v>
       </c>
-      <c r="T16" s="41">
+      <c r="T16" s="14">
         <v>76.400000000000006</v>
       </c>
-      <c r="U16" s="41">
+      <c r="U16" s="14">
         <v>58</v>
       </c>
-      <c r="V16" s="41">
+      <c r="V16" s="14">
         <v>6</v>
       </c>
-      <c r="W16" s="41">
+      <c r="W16" s="14">
         <v>74</v>
       </c>
-      <c r="X16" s="41">
+      <c r="X16" s="14">
         <v>0.9</v>
       </c>
-      <c r="Y16" s="41">
+      <c r="Y16" s="14">
         <v>1.5</v>
       </c>
-      <c r="Z16" s="41">
+      <c r="Z16" s="14">
         <v>15.08</v>
       </c>
-      <c r="AA16" s="40">
+      <c r="AA16" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="42">
+      <c r="D17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="15">
         <v>1.6</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="42">
+      <c r="F17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="15">
         <v>1</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="15">
         <v>78</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="15">
         <v>0.7</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="15">
         <v>67488</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="15">
         <v>98</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="15">
         <v>76</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="15">
         <v>481</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="15">
         <v>19</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="15">
         <v>6.4</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="15">
         <v>97</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="15">
         <v>2.1</v>
       </c>
-      <c r="S17" s="42">
+      <c r="S17" s="15">
         <v>81</v>
       </c>
-      <c r="T17" s="42">
+      <c r="T17" s="15">
         <v>83.2</v>
       </c>
-      <c r="U17" s="42">
+      <c r="U17" s="15">
         <v>77</v>
       </c>
-      <c r="V17" s="42">
+      <c r="V17" s="15">
         <v>7.6</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="15">
         <v>85</v>
       </c>
-      <c r="X17" s="42">
+      <c r="X17" s="15">
         <v>0.3</v>
       </c>
-      <c r="Y17" s="42">
+      <c r="Y17" s="15">
         <v>11.7</v>
       </c>
-      <c r="Z17" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA17" s="40">
+      <c r="Z17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA17" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="16">
         <v>0.2</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="14">
         <v>20.6</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="14">
         <v>2.1</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="14">
         <v>29488</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="14">
         <v>370341</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="14">
         <v>2.6</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="14">
         <v>68</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="14">
         <v>1.2</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="14">
         <v>49474</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="14">
         <v>96</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="14">
         <v>85</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="14">
         <v>505</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="14">
         <v>18</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P18" s="14">
         <v>7.8</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="14">
         <v>80</v>
       </c>
-      <c r="R18" s="41">
+      <c r="R18" s="14">
         <v>1.3</v>
       </c>
-      <c r="S18" s="41">
+      <c r="S18" s="14">
         <v>63</v>
       </c>
-      <c r="T18" s="41">
+      <c r="T18" s="14">
         <v>82.8</v>
       </c>
-      <c r="U18" s="41">
+      <c r="U18" s="14">
         <v>84</v>
       </c>
-      <c r="V18" s="41">
+      <c r="V18" s="14">
         <v>7</v>
       </c>
-      <c r="W18" s="41">
+      <c r="W18" s="14">
         <v>76</v>
       </c>
-      <c r="X18" s="41">
+      <c r="X18" s="14">
         <v>0.5</v>
       </c>
-      <c r="Y18" s="41">
+      <c r="Y18" s="14">
         <v>4.7</v>
       </c>
-      <c r="Z18" s="41">
+      <c r="Z18" s="14">
         <v>14.54</v>
       </c>
-      <c r="AA18" s="40">
+      <c r="AA18" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="15">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="42">
+      <c r="C19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="15">
         <v>1.2</v>
       </c>
-      <c r="F19" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="42">
+      <c r="F19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="15">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="15">
         <v>67</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="15">
         <v>0.2</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="15">
         <v>39322</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="15">
         <v>95</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="15">
         <v>88</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="15">
         <v>465</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="15">
         <v>16</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="15">
         <v>19.7</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="15">
         <v>77</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="15">
         <v>2.5</v>
       </c>
-      <c r="S19" s="42">
+      <c r="S19" s="15">
         <v>67</v>
       </c>
-      <c r="T19" s="42">
+      <c r="T19" s="15">
         <v>82.9</v>
       </c>
-      <c r="U19" s="42">
+      <c r="U19" s="15">
         <v>74</v>
       </c>
-      <c r="V19" s="42">
+      <c r="V19" s="15">
         <v>7.2</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="15">
         <v>80</v>
       </c>
-      <c r="X19" s="42">
+      <c r="X19" s="15">
         <v>1.5</v>
       </c>
-      <c r="Y19" s="42">
+      <c r="Y19" s="15">
         <v>14.1</v>
       </c>
-      <c r="Z19" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA19" s="40">
+      <c r="Z19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA19" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="16">
         <v>0.6</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="14">
         <v>22.5</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="14">
         <v>1.4</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="14">
         <v>29431</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="14">
         <v>295020</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="14">
         <v>8.6</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="14">
         <v>58</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="14">
         <v>4.8</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="14">
         <v>37769</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="14">
         <v>89</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="14">
         <v>63</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="14">
         <v>477</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="14">
         <v>17</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="14">
         <v>15.9</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="14">
         <v>77</v>
       </c>
-      <c r="R20" s="41">
+      <c r="R20" s="14">
         <v>2.5</v>
       </c>
-      <c r="S20" s="41">
+      <c r="S20" s="14">
         <v>73</v>
       </c>
-      <c r="T20" s="41">
+      <c r="T20" s="14">
         <v>83.6</v>
       </c>
-      <c r="U20" s="41">
+      <c r="U20" s="14">
         <v>73</v>
       </c>
-      <c r="V20" s="41">
+      <c r="V20" s="14">
         <v>6.5</v>
       </c>
-      <c r="W20" s="41">
+      <c r="W20" s="14">
         <v>73</v>
       </c>
-      <c r="X20" s="41">
+      <c r="X20" s="14">
         <v>0.5</v>
       </c>
-      <c r="Y20" s="41">
+      <c r="Y20" s="14">
         <v>3.3</v>
       </c>
-      <c r="Z20" s="41">
+      <c r="Z20" s="14">
         <v>16.47</v>
       </c>
-      <c r="AA20" s="40">
+      <c r="AA20" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="17">
         <v>6.4</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="15">
         <v>21.8</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="15">
         <v>1.9</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="15">
         <v>28872</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="15">
         <v>294735</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="15">
         <v>2.7</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="15">
         <v>77</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="15">
         <v>0.8</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="15">
         <v>38515</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="15">
         <v>89</v>
       </c>
-      <c r="M21" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" s="42">
+      <c r="M21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="15">
         <v>520</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="15">
         <v>16</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="15">
         <v>13.7</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="15">
         <v>87</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="15">
         <v>1.4</v>
       </c>
-      <c r="S21" s="42">
-        <v>53</v>
-      </c>
-      <c r="T21" s="42">
+      <c r="S21" s="15">
+        <v>53</v>
+      </c>
+      <c r="T21" s="15">
         <v>84.4</v>
       </c>
-      <c r="U21" s="42">
+      <c r="U21" s="15">
         <v>37</v>
       </c>
-      <c r="V21" s="42">
+      <c r="V21" s="15">
         <v>6.1</v>
       </c>
-      <c r="W21" s="42">
+      <c r="W21" s="15">
         <v>77</v>
       </c>
-      <c r="X21" s="42">
+      <c r="X21" s="15">
         <v>0.2</v>
       </c>
-      <c r="Y21" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z21" s="42">
+      <c r="Y21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z21" s="15">
         <v>14.1</v>
       </c>
-      <c r="AA21" s="40">
+      <c r="AA21" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="16">
         <v>2.5</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="14">
         <v>14.7</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="14">
         <v>1.5</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="14">
         <v>24590</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="14">
         <v>362340</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="14">
         <v>2.9</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="14">
         <v>66</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="14">
         <v>0</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="14">
         <v>41960</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="14">
         <v>80</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="14">
         <v>89</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="14">
         <v>520</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="14">
         <v>17</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="14">
         <v>27.3</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="14">
         <v>82</v>
       </c>
-      <c r="R22" s="41">
+      <c r="R22" s="14">
         <v>2.9</v>
       </c>
-      <c r="S22" s="41">
+      <c r="S22" s="14">
         <v>77</v>
       </c>
-      <c r="T22" s="41">
+      <c r="T22" s="14">
         <v>83.3</v>
       </c>
-      <c r="U22" s="41">
+      <c r="U22" s="14">
         <v>34</v>
       </c>
-      <c r="V22" s="41">
+      <c r="V22" s="14">
         <v>5.8</v>
       </c>
-      <c r="W22" s="41">
+      <c r="W22" s="14">
         <v>82</v>
       </c>
-      <c r="X22" s="41">
+      <c r="X22" s="14">
         <v>0.8</v>
       </c>
-      <c r="Y22" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z22" s="41">
+      <c r="Y22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z22" s="14">
         <v>14.83</v>
       </c>
-      <c r="AA22" s="40">
+      <c r="AA22" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="17">
         <v>11.2</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="15">
         <v>20.8</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="15">
         <v>1.2</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="15">
         <v>19783</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="15">
         <v>79245</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="15">
         <v>6.3</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="15">
         <v>72</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="15">
         <v>29876</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="15">
         <v>92</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="15">
         <v>89</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="15">
         <v>487</v>
       </c>
-      <c r="O23" s="42">
+      <c r="O23" s="15">
         <v>18</v>
       </c>
-      <c r="P23" s="42">
+      <c r="P23" s="15">
         <v>12.7</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="15">
         <v>83</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S23" s="42">
+      <c r="S23" s="15">
         <v>55</v>
       </c>
-      <c r="T23" s="42">
+      <c r="T23" s="15">
         <v>75.5</v>
       </c>
-      <c r="U23" s="42">
+      <c r="U23" s="15">
         <v>47</v>
       </c>
-      <c r="V23" s="42">
+      <c r="V23" s="15">
         <v>6.2</v>
       </c>
-      <c r="W23" s="42">
+      <c r="W23" s="15">
         <v>72</v>
       </c>
-      <c r="X23" s="42">
+      <c r="X23" s="15">
         <v>3.7</v>
       </c>
-      <c r="Y23" s="42">
+      <c r="Y23" s="15">
         <v>1.6</v>
       </c>
-      <c r="Z23" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA23" s="40">
+      <c r="Z23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA23" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="16">
         <v>11.8</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="14">
         <v>1.5</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="14">
         <v>26976</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="14">
         <v>182039</v>
       </c>
-      <c r="H24" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="41">
+      <c r="H24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="14">
         <v>72</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="14">
         <v>2.5</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="14">
         <v>31811</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="14">
         <v>89</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="14">
         <v>94</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="14">
         <v>480</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="14">
         <v>18</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="14">
         <v>10.5</v>
       </c>
-      <c r="Q24" s="41">
+      <c r="Q24" s="14">
         <v>83</v>
       </c>
-      <c r="R24" s="41">
+      <c r="R24" s="14">
         <v>2.4</v>
       </c>
-      <c r="S24" s="41">
+      <c r="S24" s="14">
         <v>57</v>
       </c>
-      <c r="T24" s="41">
+      <c r="T24" s="14">
         <v>76.400000000000006</v>
       </c>
-      <c r="U24" s="41">
+      <c r="U24" s="14">
         <v>46</v>
       </c>
-      <c r="V24" s="41">
+      <c r="V24" s="14">
         <v>6.4</v>
       </c>
-      <c r="W24" s="41">
+      <c r="W24" s="14">
         <v>62</v>
       </c>
-      <c r="X24" s="41">
+      <c r="X24" s="14">
         <v>2.5</v>
       </c>
-      <c r="Y24" s="41">
+      <c r="Y24" s="14">
         <v>1</v>
       </c>
-      <c r="Z24" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA24" s="40">
+      <c r="Z24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA24" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="17">
         <v>0.1</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="15">
         <v>20.7</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="15">
         <v>2</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="15">
         <v>44773</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="15">
         <v>941162</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="15">
         <v>67</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="15">
         <v>1.7</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="15">
         <v>65854</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="15">
         <v>91</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="15">
         <v>74</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="15">
         <v>477</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="15">
         <v>15</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="15">
         <v>10</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="15">
         <v>85</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="15">
         <v>1.7</v>
       </c>
-      <c r="S25" s="42">
+      <c r="S25" s="15">
         <v>90</v>
       </c>
-      <c r="T25" s="42">
+      <c r="T25" s="15">
         <v>82.7</v>
       </c>
-      <c r="U25" s="42">
+      <c r="U25" s="15">
         <v>72</v>
       </c>
-      <c r="V25" s="42">
+      <c r="V25" s="15">
         <v>7.4</v>
       </c>
-      <c r="W25" s="42">
+      <c r="W25" s="15">
         <v>87</v>
       </c>
-      <c r="X25" s="42">
+      <c r="X25" s="15">
         <v>0.2</v>
       </c>
-      <c r="Y25" s="42">
+      <c r="Y25" s="15">
         <v>2.8</v>
       </c>
-      <c r="Z25" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA25" s="40">
+      <c r="Z25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA25" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="16">
         <v>25.9</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="14">
         <v>17.8</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="14">
         <v>16269</v>
       </c>
-      <c r="G26" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="41">
+      <c r="G26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="14">
         <v>4</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="14">
         <v>59</v>
       </c>
-      <c r="J26" s="41">
+      <c r="J26" s="14">
         <v>0.1</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="14">
         <v>16230</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="14">
         <v>77</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="14">
         <v>42</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="14">
         <v>416</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="14">
         <v>15</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="14">
         <v>20.3</v>
       </c>
-      <c r="Q26" s="41">
+      <c r="Q26" s="14">
         <v>75</v>
       </c>
-      <c r="R26" s="41">
+      <c r="R26" s="14">
         <v>3.2</v>
       </c>
-      <c r="S26" s="41">
+      <c r="S26" s="14">
         <v>63</v>
       </c>
-      <c r="T26" s="41">
+      <c r="T26" s="14">
         <v>75.099999999999994</v>
       </c>
-      <c r="U26" s="41">
+      <c r="U26" s="14">
         <v>66</v>
       </c>
-      <c r="V26" s="41">
+      <c r="V26" s="14">
         <v>6</v>
       </c>
-      <c r="W26" s="41">
+      <c r="W26" s="14">
         <v>42</v>
       </c>
-      <c r="X26" s="41">
+      <c r="X26" s="14">
         <v>26.8</v>
       </c>
-      <c r="Y26" s="41">
+      <c r="Y26" s="14">
         <v>27</v>
       </c>
-      <c r="Z26" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA26" s="40">
+      <c r="Z26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA26" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="17">
         <v>0.1</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="15">
         <v>19.600000000000001</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="15">
         <v>2</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="15">
         <v>34984</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="15">
         <v>248599</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="15">
         <v>2.5</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="15">
         <v>78</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="15">
         <v>0.9</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="15">
         <v>58828</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="15">
         <v>94</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="15">
         <v>81</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="15">
         <v>502</v>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="15">
         <v>19</v>
       </c>
-      <c r="P27" s="42">
+      <c r="P27" s="15">
         <v>12.2</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="15">
         <v>91</v>
       </c>
-      <c r="R27" s="42">
+      <c r="R27" s="15">
         <v>2.6</v>
       </c>
-      <c r="S27" s="42">
+      <c r="S27" s="15">
         <v>79</v>
       </c>
-      <c r="T27" s="42">
+      <c r="T27" s="15">
         <v>82.2</v>
       </c>
-      <c r="U27" s="42">
+      <c r="U27" s="15">
         <v>75</v>
       </c>
-      <c r="V27" s="42">
+      <c r="V27" s="15">
         <v>7.5</v>
       </c>
-      <c r="W27" s="42">
+      <c r="W27" s="15">
         <v>83</v>
       </c>
-      <c r="X27" s="42">
+      <c r="X27" s="15">
         <v>0.6</v>
       </c>
-      <c r="Y27" s="42">
+      <c r="Y27" s="15">
         <v>0.3</v>
       </c>
-      <c r="Z27" s="42">
+      <c r="Z27" s="15">
         <v>15.45</v>
       </c>
-      <c r="AA27" s="40">
+      <c r="AA27" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="15">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="41">
+      <c r="C28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="14">
         <v>25</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="14">
         <v>2.4</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="14">
         <v>39024</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="14">
         <v>514162</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="14">
         <v>4.5</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="14">
         <v>77</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="14">
         <v>0.4</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="14">
         <v>45269</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="14">
         <v>95</v>
       </c>
-      <c r="M28" s="41">
+      <c r="M28" s="14">
         <v>81</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="14">
         <v>503</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="14">
         <v>18</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="14">
         <v>6</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="14">
         <v>85</v>
       </c>
-      <c r="R28" s="41">
+      <c r="R28" s="14">
         <v>2.5</v>
       </c>
-      <c r="S28" s="41">
+      <c r="S28" s="14">
         <v>82</v>
       </c>
-      <c r="T28" s="41">
+      <c r="T28" s="14">
         <v>82.1</v>
       </c>
-      <c r="U28" s="41">
+      <c r="U28" s="14">
         <v>86</v>
       </c>
-      <c r="V28" s="41">
+      <c r="V28" s="14">
         <v>7.3</v>
       </c>
-      <c r="W28" s="41">
+      <c r="W28" s="14">
         <v>66</v>
       </c>
-      <c r="X28" s="41">
+      <c r="X28" s="14">
         <v>1.3</v>
       </c>
-      <c r="Y28" s="41">
+      <c r="Y28" s="14">
         <v>14</v>
       </c>
-      <c r="Z28" s="41">
+      <c r="Z28" s="14">
         <v>14.87</v>
       </c>
-      <c r="AA28" s="40">
+      <c r="AA28" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="15">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="17">
         <v>0</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="15">
         <v>17.7</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="15">
         <v>2.1</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="15">
         <v>39144</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="15">
         <v>268358</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="15">
         <v>2.8</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="15">
         <v>75</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="15">
         <v>0.9</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="15">
         <v>55780</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="15">
         <v>96</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="15">
         <v>82</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="15">
         <v>497</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="15">
         <v>18</v>
       </c>
-      <c r="P29" s="42">
+      <c r="P29" s="15">
         <v>6.7</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="15">
         <v>98</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S29" s="42">
+      <c r="S29" s="15">
         <v>78</v>
       </c>
-      <c r="T29" s="42">
+      <c r="T29" s="15">
         <v>83</v>
       </c>
-      <c r="U29" s="42">
+      <c r="U29" s="15">
         <v>75</v>
       </c>
-      <c r="V29" s="42">
+      <c r="V29" s="15">
         <v>7.3</v>
       </c>
-      <c r="W29" s="42">
+      <c r="W29" s="15">
         <v>93</v>
       </c>
-      <c r="X29" s="42">
+      <c r="X29" s="15">
         <v>0.6</v>
       </c>
-      <c r="Y29" s="42">
+      <c r="Y29" s="15">
         <v>1.4</v>
       </c>
-      <c r="Z29" s="42">
+      <c r="Z29" s="15">
         <v>15.67</v>
       </c>
-      <c r="AA29" s="40">
+      <c r="AA29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="14">
         <v>21.2</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="14">
         <v>23675</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="14">
         <v>233221</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="14">
         <v>5</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="14">
         <v>69</v>
       </c>
-      <c r="J30" s="41">
+      <c r="J30" s="14">
         <v>0.6</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="14">
         <v>32527</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="14">
         <v>94</v>
       </c>
-      <c r="M30" s="41">
+      <c r="M30" s="14">
         <v>93</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="14">
         <v>513</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O30" s="14">
         <v>18</v>
       </c>
-      <c r="P30" s="41">
+      <c r="P30" s="14">
         <v>22.8</v>
       </c>
-      <c r="Q30" s="41">
+      <c r="Q30" s="14">
         <v>82</v>
       </c>
-      <c r="R30" s="41">
+      <c r="R30" s="14">
         <v>2.6</v>
       </c>
-      <c r="S30" s="41">
+      <c r="S30" s="14">
         <v>68</v>
       </c>
-      <c r="T30" s="41">
+      <c r="T30" s="14">
         <v>78</v>
       </c>
-      <c r="U30" s="41">
+      <c r="U30" s="14">
         <v>60</v>
       </c>
-      <c r="V30" s="41">
+      <c r="V30" s="14">
         <v>6.1</v>
       </c>
-      <c r="W30" s="41">
+      <c r="W30" s="14">
         <v>71</v>
       </c>
-      <c r="X30" s="41">
+      <c r="X30" s="14">
         <v>0.5</v>
       </c>
-      <c r="Y30" s="41">
+      <c r="Y30" s="14">
         <v>4.2</v>
       </c>
-      <c r="Z30" s="41">
+      <c r="Z30" s="14">
         <v>14.68</v>
       </c>
-      <c r="AA30" s="40">
+      <c r="AA30" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="17">
         <v>0.9</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="15">
         <v>19.600000000000001</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="15">
         <v>1.7</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="15">
         <v>24877</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="15">
         <v>255303</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="15">
         <v>8.1</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="15">
         <v>69</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="15">
         <v>28410</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="15">
         <v>87</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="15">
         <v>55</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N31" s="15">
         <v>492</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="15">
         <v>17</v>
       </c>
-      <c r="P31" s="42">
+      <c r="P31" s="15">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q31" s="42">
+      <c r="Q31" s="15">
         <v>89</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="15">
         <v>1.5</v>
       </c>
-      <c r="S31" s="42">
+      <c r="S31" s="15">
         <v>49</v>
       </c>
-      <c r="T31" s="42">
+      <c r="T31" s="15">
         <v>81.8</v>
       </c>
-      <c r="U31" s="42">
+      <c r="U31" s="15">
         <v>50</v>
       </c>
-      <c r="V31" s="42">
+      <c r="V31" s="15">
         <v>5.8</v>
       </c>
-      <c r="W31" s="42">
+      <c r="W31" s="15">
         <v>83</v>
       </c>
-      <c r="X31" s="42">
+      <c r="X31" s="15">
         <v>0.7</v>
       </c>
-      <c r="Y31" s="42">
+      <c r="Y31" s="15">
         <v>5.6</v>
       </c>
-      <c r="Z31" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA31" s="40">
+      <c r="Z31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA31" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="16">
         <v>1.5</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="14">
         <v>27.4</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="14">
         <v>21149</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="14">
         <v>171425</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="14">
         <v>68</v>
       </c>
-      <c r="J32" s="41">
+      <c r="J32" s="14">
         <v>3</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="14">
         <v>23619</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="14">
         <v>95</v>
       </c>
-      <c r="M32" s="41">
+      <c r="M32" s="14">
         <v>92</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="14">
         <v>469</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="14">
         <v>16</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="14">
         <v>18.5</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="14">
         <v>81</v>
       </c>
-      <c r="R32" s="41">
+      <c r="R32" s="14">
         <v>3</v>
       </c>
-      <c r="S32" s="41">
+      <c r="S32" s="14">
         <v>66</v>
       </c>
-      <c r="T32" s="41">
+      <c r="T32" s="14">
         <v>77.8</v>
       </c>
-      <c r="U32" s="41">
+      <c r="U32" s="14">
         <v>65</v>
       </c>
-      <c r="V32" s="41">
+      <c r="V32" s="14">
         <v>6.5</v>
       </c>
-      <c r="W32" s="41">
+      <c r="W32" s="14">
         <v>76</v>
       </c>
-      <c r="X32" s="41">
+      <c r="X32" s="14">
         <v>0.8</v>
       </c>
-      <c r="Y32" s="41">
+      <c r="Y32" s="14">
         <v>4.2</v>
       </c>
-      <c r="Z32" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA32" s="40">
+      <c r="Z32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA32" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="15">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="17">
         <v>0.2</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="15">
         <v>18.2</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="15">
         <v>1.6</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="15">
         <v>25250</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="15">
         <v>233286</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="15">
         <v>5.9</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="15">
         <v>71</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="15">
         <v>1.9</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="15">
         <v>41445</v>
       </c>
-      <c r="L33" s="42">
+      <c r="L33" s="15">
         <v>95</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="15">
         <v>90</v>
       </c>
-      <c r="N33" s="42">
+      <c r="N33" s="15">
         <v>504</v>
       </c>
-      <c r="O33" s="42">
+      <c r="O33" s="15">
         <v>18</v>
       </c>
-      <c r="P33" s="42">
+      <c r="P33" s="15">
         <v>17</v>
       </c>
-      <c r="Q33" s="42">
+      <c r="Q33" s="15">
         <v>93</v>
       </c>
-      <c r="R33" s="42">
+      <c r="R33" s="15">
         <v>2.5</v>
       </c>
-      <c r="S33" s="42">
-        <v>53</v>
-      </c>
-      <c r="T33" s="42">
+      <c r="S33" s="15">
+        <v>53</v>
+      </c>
+      <c r="T33" s="15">
         <v>81.599999999999994</v>
       </c>
-      <c r="U33" s="42">
+      <c r="U33" s="15">
         <v>67</v>
       </c>
-      <c r="V33" s="42">
+      <c r="V33" s="15">
         <v>6.5</v>
       </c>
-      <c r="W33" s="42">
+      <c r="W33" s="15">
         <v>91</v>
       </c>
-      <c r="X33" s="42">
+      <c r="X33" s="15">
         <v>0.4</v>
       </c>
-      <c r="Y33" s="42">
+      <c r="Y33" s="15">
         <v>5.6</v>
       </c>
-      <c r="Z33" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA33" s="40">
+      <c r="Z33" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA33" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="15">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="16">
         <v>0.3</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="14">
         <v>21.7</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="14">
         <v>1.9</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="14">
         <v>27155</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="14">
         <v>366534</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="14">
         <v>15.8</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="14">
         <v>62</v>
       </c>
-      <c r="J34" s="41">
+      <c r="J34" s="14">
         <v>5</v>
       </c>
-      <c r="K34" s="41">
+      <c r="K34" s="14">
         <v>37922</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="14">
         <v>93</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="14">
         <v>63</v>
       </c>
-      <c r="N34" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="O34" s="41">
+      <c r="N34" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" s="14">
         <v>18</v>
       </c>
-      <c r="P34" s="41">
+      <c r="P34" s="14">
         <v>10</v>
       </c>
-      <c r="Q34" s="41">
+      <c r="Q34" s="14">
         <v>76</v>
       </c>
-      <c r="R34" s="41">
+      <c r="R34" s="14">
         <v>1.8</v>
       </c>
-      <c r="S34" s="41">
+      <c r="S34" s="14">
         <v>72</v>
       </c>
-      <c r="T34" s="41">
+      <c r="T34" s="14">
         <v>83.9</v>
       </c>
-      <c r="U34" s="41">
+      <c r="U34" s="14">
         <v>75</v>
       </c>
-      <c r="V34" s="41">
+      <c r="V34" s="14">
         <v>6.5</v>
       </c>
-      <c r="W34" s="41">
+      <c r="W34" s="14">
         <v>80</v>
       </c>
-      <c r="X34" s="41">
+      <c r="X34" s="14">
         <v>0.7</v>
       </c>
-      <c r="Y34" s="41">
+      <c r="Y34" s="14">
         <v>2.5</v>
       </c>
-      <c r="Z34" s="41">
+      <c r="Z34" s="14">
         <v>15.75</v>
       </c>
-      <c r="AA34" s="40">
+      <c r="AA34" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="15">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="17">
         <v>0</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="15">
         <v>20.100000000000001</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="15">
         <v>1.7</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="15">
         <v>33730</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="42">
+      <c r="G35" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="15">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="15">
         <v>75</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="15">
         <v>1</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="15">
         <v>47020</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35" s="15">
         <v>94</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="15">
         <v>84</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="15">
         <v>503</v>
       </c>
-      <c r="O35" s="42">
+      <c r="O35" s="15">
         <v>20</v>
       </c>
-      <c r="P35" s="42">
+      <c r="P35" s="15">
         <v>5.8</v>
       </c>
-      <c r="Q35" s="42">
+      <c r="Q35" s="15">
         <v>97</v>
       </c>
-      <c r="R35" s="42">
+      <c r="R35" s="15">
         <v>2</v>
       </c>
-      <c r="S35" s="42">
+      <c r="S35" s="15">
         <v>87</v>
       </c>
-      <c r="T35" s="42">
+      <c r="T35" s="15">
         <v>83.2</v>
       </c>
-      <c r="U35" s="42">
+      <c r="U35" s="15">
         <v>76</v>
       </c>
-      <c r="V35" s="42">
+      <c r="V35" s="15">
         <v>7.3</v>
       </c>
-      <c r="W35" s="42">
+      <c r="W35" s="15">
         <v>79</v>
       </c>
-      <c r="X35" s="42">
+      <c r="X35" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y35" s="42">
+      <c r="Y35" s="15">
         <v>0.9</v>
       </c>
-      <c r="Z35" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA35" s="40">
+      <c r="Z35" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA35" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="15">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="16">
         <v>0</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="14">
         <v>21.4</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="14">
         <v>1.9</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="14">
         <v>39697</v>
       </c>
-      <c r="G36" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="41">
+      <c r="G36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="14">
         <v>80</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J36" s="14">
         <v>1.7</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="14">
         <v>64824</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="14">
         <v>94</v>
       </c>
-      <c r="M36" s="41">
+      <c r="M36" s="14">
         <v>89</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="14">
         <v>498</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="14">
         <v>17</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="14">
         <v>10.1</v>
       </c>
-      <c r="Q36" s="41">
+      <c r="Q36" s="14">
         <v>96</v>
       </c>
-      <c r="R36" s="41">
+      <c r="R36" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S36" s="41">
+      <c r="S36" s="14">
         <v>45</v>
       </c>
-      <c r="T36" s="41">
+      <c r="T36" s="14">
         <v>84</v>
       </c>
-      <c r="U36" s="41">
+      <c r="U36" s="14">
         <v>81</v>
       </c>
-      <c r="V36" s="41">
+      <c r="V36" s="14">
         <v>7.5</v>
       </c>
-      <c r="W36" s="41">
+      <c r="W36" s="14">
         <v>86</v>
       </c>
-      <c r="X36" s="41">
+      <c r="X36" s="14">
         <v>0.3</v>
       </c>
-      <c r="Y36" s="41">
+      <c r="Y36" s="14">
         <v>0.4</v>
       </c>
-      <c r="Z36" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA36" s="40">
+      <c r="Z36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA36" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="15">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D37" s="15">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="15">
+        <v>13</v>
+      </c>
+      <c r="I37" s="15">
+        <v>48</v>
+      </c>
+      <c r="J37" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="15">
+        <v>85</v>
+      </c>
+      <c r="M37" s="15">
+        <v>42</v>
+      </c>
+      <c r="N37" s="15">
+        <v>462</v>
+      </c>
+      <c r="O37" s="15">
+        <v>19</v>
+      </c>
+      <c r="P37" s="15">
+        <v>27.1</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>62</v>
+      </c>
+      <c r="R37" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="S37" s="15">
+        <v>86</v>
+      </c>
+      <c r="T37" s="15">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="U37" s="15">
+        <v>67</v>
+      </c>
+      <c r="V37" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W37" s="15">
+        <v>59</v>
+      </c>
+      <c r="X37" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="15">
+        <v>25</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>14.61</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15">
+      <c r="A38" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="14">
+        <v>23.2</v>
+      </c>
+      <c r="E38" s="14">
+        <v>2</v>
+      </c>
+      <c r="F38" s="14">
+        <v>33049</v>
+      </c>
+      <c r="G38" s="14">
+        <v>524422</v>
+      </c>
+      <c r="H38" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="I38" s="14">
+        <v>75</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="K38" s="14">
+        <v>47147</v>
+      </c>
+      <c r="L38" s="14">
+        <v>93</v>
+      </c>
+      <c r="M38" s="14">
+        <v>82</v>
+      </c>
+      <c r="N38" s="14">
+        <v>503</v>
+      </c>
+      <c r="O38" s="14">
+        <v>17</v>
+      </c>
+      <c r="P38" s="14">
+        <v>10.1</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>82</v>
+      </c>
+      <c r="R38" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="S38" s="14">
+        <v>68</v>
+      </c>
+      <c r="T38" s="14">
+        <v>81.3</v>
+      </c>
+      <c r="U38" s="14">
+        <v>73</v>
+      </c>
+      <c r="V38" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="W38" s="14">
+        <v>78</v>
+      </c>
+      <c r="X38" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>10.8</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>14.94</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15">
+      <c r="A39" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="15">
+        <v>18.3</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="F39" s="15">
+        <v>51147</v>
+      </c>
+      <c r="G39" s="15">
+        <v>684500</v>
+      </c>
+      <c r="H39" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="I39" s="15">
+        <v>67</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="15">
+        <v>69392</v>
+      </c>
+      <c r="L39" s="15">
+        <v>94</v>
+      </c>
+      <c r="M39" s="15">
+        <v>92</v>
+      </c>
+      <c r="N39" s="15">
+        <v>495</v>
+      </c>
+      <c r="O39" s="15">
+        <v>17</v>
+      </c>
+      <c r="P39" s="15">
+        <v>7.7</v>
+      </c>
+      <c r="Q39" s="15">
         <v>88</v>
       </c>
-      <c r="C37" s="44">
+      <c r="R39" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="S39" s="15">
+        <v>65</v>
+      </c>
+      <c r="T39" s="15">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="U39" s="15">
+        <v>88</v>
+      </c>
+      <c r="V39" s="15">
+        <v>7</v>
+      </c>
+      <c r="W39" s="15">
+        <v>78</v>
+      </c>
+      <c r="X39" s="15">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="15">
+        <v>10.4</v>
+      </c>
+      <c r="Z39" s="15">
+        <v>14.57</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15">
+      <c r="A40" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="16">
+        <v>3</v>
+      </c>
+      <c r="D40" s="14">
+        <v>20.5</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="F40" s="14">
+        <v>30490</v>
+      </c>
+      <c r="G40" s="14">
+        <v>323960</v>
+      </c>
+      <c r="H40" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I40" s="14">
+        <v>66</v>
+      </c>
+      <c r="J40" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="K40" s="14">
+        <v>49165</v>
+      </c>
+      <c r="L40" s="14">
+        <v>91</v>
+      </c>
+      <c r="M40" s="14">
+        <v>79</v>
+      </c>
+      <c r="N40" s="14">
+        <v>488</v>
+      </c>
+      <c r="O40" s="14">
+        <v>18</v>
+      </c>
+      <c r="P40" s="14">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>84</v>
+      </c>
+      <c r="R40" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="S40" s="14">
+        <v>69</v>
+      </c>
+      <c r="T40" s="14">
+        <v>81</v>
+      </c>
+      <c r="U40" s="14">
+        <v>68</v>
+      </c>
+      <c r="V40" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="W40" s="14">
+        <v>74</v>
+      </c>
+      <c r="X40" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>15.07</v>
+      </c>
+      <c r="AA40" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15">
+      <c r="A41" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="15">
+        <v>57</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="15">
+        <v>83</v>
+      </c>
+      <c r="M41" s="15">
+        <v>57</v>
+      </c>
+      <c r="N41" s="15">
+        <v>400</v>
+      </c>
+      <c r="O41" s="15">
+        <v>16</v>
+      </c>
+      <c r="P41" s="15">
+        <v>11.7</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>70</v>
+      </c>
+      <c r="R41" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S41" s="15">
+        <v>80</v>
+      </c>
+      <c r="T41" s="15">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="U41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V41" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="W41" s="15">
+        <v>45</v>
+      </c>
+      <c r="X41" s="15">
+        <v>19</v>
+      </c>
+      <c r="Y41" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="Z41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15">
+      <c r="A42" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="D42" s="14">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14">
+        <v>19546</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="14">
+        <v>70</v>
+      </c>
+      <c r="J42" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" s="14">
+        <v>89</v>
+      </c>
+      <c r="M42" s="14">
+        <v>95</v>
+      </c>
+      <c r="N42" s="14">
+        <v>481</v>
+      </c>
+      <c r="O42" s="14">
+        <v>16</v>
+      </c>
+      <c r="P42" s="14">
+        <v>11.8</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>62</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S42" s="14">
+        <v>68</v>
+      </c>
+      <c r="T42" s="14">
+        <v>73.2</v>
+      </c>
+      <c r="U42" s="14">
+        <v>43</v>
+      </c>
+      <c r="V42" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="W42" s="14">
+        <v>64</v>
+      </c>
+      <c r="X42" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Z42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15">
+      <c r="A43" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="17">
+        <v>35.9</v>
+      </c>
+      <c r="D43" s="15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="15">
+        <v>9338</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="15">
+        <v>39</v>
+      </c>
+      <c r="J43" s="15">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" s="15">
+        <v>89</v>
+      </c>
+      <c r="M43" s="15">
+        <v>48</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" s="15">
+        <v>28.5</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>72</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S43" s="15">
+        <v>66</v>
+      </c>
+      <c r="T43" s="15">
+        <v>64.2</v>
+      </c>
+      <c r="U43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V43" s="15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D37" s="42">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E37" s="42">
-        <v>1</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="42">
-        <v>13</v>
-      </c>
-      <c r="I37" s="42">
-        <v>48</v>
-      </c>
-      <c r="J37" s="42">
-        <v>3.3</v>
-      </c>
-      <c r="K37" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="42">
-        <v>85</v>
-      </c>
-      <c r="M37" s="42">
-        <v>42</v>
-      </c>
-      <c r="N37" s="42">
-        <v>462</v>
-      </c>
-      <c r="O37" s="42">
-        <v>19</v>
-      </c>
-      <c r="P37" s="42">
-        <v>27.1</v>
-      </c>
-      <c r="Q37" s="42">
-        <v>62</v>
-      </c>
-      <c r="R37" s="42">
-        <v>1.5</v>
-      </c>
-      <c r="S37" s="42">
-        <v>86</v>
-      </c>
-      <c r="T37" s="42">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="U37" s="42">
-        <v>67</v>
-      </c>
-      <c r="V37" s="42">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="W37" s="42">
-        <v>59</v>
-      </c>
-      <c r="X37" s="42">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="42">
-        <v>25</v>
-      </c>
-      <c r="Z37" s="42">
-        <v>14.61</v>
-      </c>
-      <c r="AA37" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="15">
-      <c r="A38" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="41">
-        <v>23.2</v>
-      </c>
-      <c r="E38" s="41">
-        <v>2</v>
-      </c>
-      <c r="F38" s="41">
-        <v>33049</v>
-      </c>
-      <c r="G38" s="41">
-        <v>524422</v>
-      </c>
-      <c r="H38" s="41">
-        <v>3.3</v>
-      </c>
-      <c r="I38" s="41">
-        <v>75</v>
-      </c>
-      <c r="J38" s="41">
-        <v>0.9</v>
-      </c>
-      <c r="K38" s="41">
-        <v>47147</v>
-      </c>
-      <c r="L38" s="41">
-        <v>93</v>
-      </c>
-      <c r="M38" s="41">
-        <v>82</v>
-      </c>
-      <c r="N38" s="41">
-        <v>503</v>
-      </c>
-      <c r="O38" s="41">
-        <v>17</v>
-      </c>
-      <c r="P38" s="41">
-        <v>10.1</v>
-      </c>
-      <c r="Q38" s="41">
-        <v>82</v>
-      </c>
-      <c r="R38" s="41">
-        <v>3.1</v>
-      </c>
-      <c r="S38" s="41">
-        <v>68</v>
-      </c>
-      <c r="T38" s="41">
-        <v>81.3</v>
-      </c>
-      <c r="U38" s="41">
-        <v>73</v>
-      </c>
-      <c r="V38" s="41">
-        <v>6.8</v>
-      </c>
-      <c r="W38" s="41">
-        <v>78</v>
-      </c>
-      <c r="X38" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="Y38" s="41">
-        <v>10.8</v>
-      </c>
-      <c r="Z38" s="41">
-        <v>14.94</v>
-      </c>
-      <c r="AA38" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="15">
-      <c r="A39" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="42">
-        <v>18.3</v>
-      </c>
-      <c r="E39" s="42">
-        <v>2.4</v>
-      </c>
-      <c r="F39" s="42">
-        <v>51147</v>
-      </c>
-      <c r="G39" s="42">
-        <v>684500</v>
-      </c>
-      <c r="H39" s="42">
-        <v>4.2</v>
-      </c>
-      <c r="I39" s="42">
-        <v>67</v>
-      </c>
-      <c r="J39" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="K39" s="42">
-        <v>69392</v>
-      </c>
-      <c r="L39" s="42">
-        <v>94</v>
-      </c>
-      <c r="M39" s="42">
-        <v>92</v>
-      </c>
-      <c r="N39" s="42">
-        <v>495</v>
-      </c>
-      <c r="O39" s="42">
-        <v>17</v>
-      </c>
-      <c r="P39" s="42">
-        <v>7.7</v>
-      </c>
-      <c r="Q39" s="42">
-        <v>88</v>
-      </c>
-      <c r="R39" s="42">
-        <v>3.1</v>
-      </c>
-      <c r="S39" s="42">
-        <v>65</v>
-      </c>
-      <c r="T39" s="42">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="U39" s="42">
-        <v>88</v>
-      </c>
-      <c r="V39" s="42">
-        <v>7</v>
-      </c>
-      <c r="W39" s="42">
-        <v>78</v>
-      </c>
-      <c r="X39" s="42">
-        <v>6</v>
-      </c>
-      <c r="Y39" s="42">
-        <v>10.4</v>
-      </c>
-      <c r="Z39" s="42">
-        <v>14.57</v>
-      </c>
-      <c r="AA39" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="15">
-      <c r="A40" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="43">
-        <v>3</v>
-      </c>
-      <c r="D40" s="41">
-        <v>20.5</v>
-      </c>
-      <c r="E40" s="41">
-        <v>1.7</v>
-      </c>
-      <c r="F40" s="41">
-        <v>30490</v>
-      </c>
-      <c r="G40" s="41">
-        <v>323960</v>
-      </c>
-      <c r="H40" s="41">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I40" s="41">
-        <v>66</v>
-      </c>
-      <c r="J40" s="41">
-        <v>1.3</v>
-      </c>
-      <c r="K40" s="41">
-        <v>49165</v>
-      </c>
-      <c r="L40" s="41">
-        <v>91</v>
-      </c>
-      <c r="M40" s="41">
-        <v>79</v>
-      </c>
-      <c r="N40" s="41">
-        <v>488</v>
-      </c>
-      <c r="O40" s="41">
-        <v>18</v>
-      </c>
-      <c r="P40" s="41">
-        <v>14</v>
-      </c>
-      <c r="Q40" s="41">
-        <v>84</v>
-      </c>
-      <c r="R40" s="41">
-        <v>2.1</v>
-      </c>
-      <c r="S40" s="41">
-        <v>69</v>
-      </c>
-      <c r="T40" s="41">
-        <v>81</v>
-      </c>
-      <c r="U40" s="41">
-        <v>68</v>
-      </c>
-      <c r="V40" s="41">
-        <v>6.7</v>
-      </c>
-      <c r="W40" s="41">
-        <v>74</v>
-      </c>
-      <c r="X40" s="41">
-        <v>2.6</v>
-      </c>
-      <c r="Y40" s="41">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Z40" s="41">
-        <v>15.07</v>
-      </c>
-      <c r="AA40" s="40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15">
-      <c r="A41" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="44">
-        <v>6.7</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="42">
-        <v>57</v>
-      </c>
-      <c r="J41" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="L41" s="42">
-        <v>83</v>
-      </c>
-      <c r="M41" s="42">
-        <v>57</v>
-      </c>
-      <c r="N41" s="42">
-        <v>400</v>
-      </c>
-      <c r="O41" s="42">
-        <v>16</v>
-      </c>
-      <c r="P41" s="42">
-        <v>11.7</v>
-      </c>
-      <c r="Q41" s="42">
-        <v>70</v>
-      </c>
-      <c r="R41" s="42">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S41" s="42">
-        <v>80</v>
-      </c>
-      <c r="T41" s="42">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="U41" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="V41" s="42">
-        <v>6.1</v>
-      </c>
-      <c r="W41" s="42">
-        <v>45</v>
-      </c>
-      <c r="X41" s="42">
-        <v>19</v>
-      </c>
-      <c r="Y41" s="42">
-        <v>5.6</v>
-      </c>
-      <c r="Z41" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA41" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15">
-      <c r="A42" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="43">
-        <v>13.8</v>
-      </c>
-      <c r="D42" s="41">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E42" s="41">
-        <v>1</v>
-      </c>
-      <c r="F42" s="41">
-        <v>19546</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="41">
-        <v>70</v>
-      </c>
-      <c r="J42" s="41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K42" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="L42" s="41">
-        <v>89</v>
-      </c>
-      <c r="M42" s="41">
-        <v>95</v>
-      </c>
-      <c r="N42" s="41">
-        <v>481</v>
-      </c>
-      <c r="O42" s="41">
-        <v>16</v>
-      </c>
-      <c r="P42" s="41">
-        <v>11.8</v>
-      </c>
-      <c r="Q42" s="41">
-        <v>62</v>
-      </c>
-      <c r="R42" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="S42" s="41">
-        <v>68</v>
-      </c>
-      <c r="T42" s="41">
-        <v>73.2</v>
-      </c>
-      <c r="U42" s="41">
-        <v>43</v>
-      </c>
-      <c r="V42" s="41">
-        <v>5.5</v>
-      </c>
-      <c r="W42" s="41">
-        <v>64</v>
-      </c>
-      <c r="X42" s="41">
-        <v>4.8</v>
-      </c>
-      <c r="Y42" s="41">
-        <v>0.1</v>
-      </c>
-      <c r="Z42" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA42" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="15">
-      <c r="A43" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="44">
-        <v>35.9</v>
-      </c>
-      <c r="D43" s="42">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="42">
-        <v>9338</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" s="42">
-        <v>39</v>
-      </c>
-      <c r="J43" s="42">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="K43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="42">
-        <v>89</v>
-      </c>
-      <c r="M43" s="42">
-        <v>48</v>
-      </c>
-      <c r="N43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" s="42">
-        <v>28.5</v>
-      </c>
-      <c r="Q43" s="42">
-        <v>72</v>
-      </c>
-      <c r="R43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="S43" s="42">
-        <v>66</v>
-      </c>
-      <c r="T43" s="42">
-        <v>64.2</v>
-      </c>
-      <c r="U43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="V43" s="42">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="W43" s="42">
+      <c r="W43" s="15">
         <v>40</v>
       </c>
-      <c r="X43" s="42">
+      <c r="X43" s="15">
         <v>13.7</v>
       </c>
-      <c r="Y43" s="42">
+      <c r="Y43" s="15">
         <v>15.4</v>
       </c>
-      <c r="Z43" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA43" s="40">
+      <c r="Z43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA43" s="13">
         <v>0</v>
       </c>
     </row>

--- a/data/OECD_betterLifeIndex.xlsx
+++ b/data/OECD_betterLifeIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Projects\pythonProject\CSC3833_Coursework_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D30921-B64E-4088-B138-960D765D49FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009703D-6FFD-4E09-8C9A-35EB539053ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="2625" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OECD.Stat export" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="128">
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="BLI" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Better Life Index&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indicateur du vivre mieux&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CAN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Canada&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Canada&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="COL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Colombia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Colombie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CRI" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Costa Rica&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Costa Rica&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GRC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Greece&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Grèce&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Iceland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Islande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="IRL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Ireland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Irlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Israel&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Israël&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LUX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Luxembourg&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Luxembourg&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NZL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;New Zealand&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Nouvelle-Zélande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="POL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Poland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pologne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovenia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Slovénie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SWE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Sweden&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suède&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TUR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Türkiye&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Türkiye&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OECD" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;OECD - Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;OCDE - Total&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NMEC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Non-OECD Economies&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Économies non-OCDE&lt;/Name&gt;&lt;ChildMember Code="BRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Brazil&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Brésil&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="RUS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Russia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Russie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ZAF" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;South Africa&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Afrique du Sud&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="INDICATOR" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Indicator&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indicateur&lt;/Name&gt;&lt;Member Code="HO" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Housing&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Logement&lt;/Name&gt;&lt;ChildMember Code="HO_BASE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0" IsDisplayed="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Dwellings without basic facilities&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Logements sans équipements sanitaires de base&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="HO_HISH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Housing expenditure&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût du logement&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="HO_NUMR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Rooms per person&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Nombre de pièces par personne&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="IW" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenu&lt;/Name&gt;&lt;ChildMember Code="IW_HADI" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Household net adjusted disposable income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenu disponible ajusté net des ménages&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="IW_HNFW" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Household net wealth&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Patrimoine net des ménages&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="JE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Jobs&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Emploi&lt;/Name&gt;&lt;ChildMember Code="JE_LMIS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour market insecurity&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Insécurité sur le marché du travail&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="JE_EMPL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Employment rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux d’emploi&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="JE_LTUR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Long-term unemployment rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux de chômage de longue durée&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="JE_PEARN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Personal earnings&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenus moyens d’activité&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="SC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Community&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Liens sociaux&lt;/Name&gt;&lt;ChildMember Code="SC_SNTWS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Quality of support network&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Qualité du réseau social&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="ES" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Enseignement&lt;/Name&gt;&lt;ChildMember Code="ES_EDUA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Educational attainment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Niveau d’instruction&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ES_STCS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Student skills&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Compétences des élèves&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ES_EDUEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Years in education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Années de scolarité&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="EQ" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Environment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Environnement&lt;/Name&gt;&lt;ChildMember Code="EQ_AIRP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Air pollution&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pollution atmosphérique&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="EQ_WATER" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Water quality&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Qualité de l’eau&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="CG" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Civic engagement&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Engagement civique&lt;/Name&gt;&lt;ChildMember Code="CG_SENG" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Stakeholder engagement for developing regulations&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Participation des parties prenantes à l’élaboration de la réglementation&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="CG_VOTO" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Voter turnout&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Participation électorale&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="HS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Health&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Santé&lt;/Name&gt;&lt;ChildMember Code="HS_LEB" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Life expectancy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espérance de vie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="HS_SFRH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Self-reported health&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Auto-évaluation de l’état de santé&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="SW" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Life Satisfaction&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Satisfaction&lt;/Name&gt;&lt;ChildMember Code="SW_LIFS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Life satisfaction&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Satisfaction à l’égard de la vie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="PS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Safety&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Sécurité&lt;/Name&gt;&lt;ChildMember Code="PS_FSAFEN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Feeling safe walking alone at night&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Se sentir en sécurité quand on marche seul la nuit&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="PS_REPH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Homicide rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux d’homicides&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="WL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Work-Life Balance&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Équilibre travail-vie&lt;/Name&gt;&lt;ChildMember Code="WL_EWLH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Employees working very long hours&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Horaires de travail lourds&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="WL_TNOW" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Time devoted to leisure and personal care&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps consacré aux loisirs et à soi&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="MEASURE" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Measure&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mesure&lt;/Name&gt;&lt;Member Code="L" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="INEQUALITY" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Inequality&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Inégalité&lt;/Name&gt;&lt;Member Code="TOT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Total&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Men&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Homme&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="WMN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Women&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Femme&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HGH" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;High&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Haut&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LW" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Low&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Bas&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="INDICATOR" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" CommonCode="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="INEQUALITY" /&gt;&lt;Dimension Code="MEASURE" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;-1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;false&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=86595&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>Turkey</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5142,8 +5145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -6673,7 +6676,7 @@
     </row>
     <row r="19" spans="1:27" ht="15">
       <c r="A19" s="19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>70</v>
@@ -6925,7 +6928,7 @@
         <v>117</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C22" s="16">
         <v>2.5</v>

--- a/data/OECD_betterLifeIndex.xlsx
+++ b/data/OECD_betterLifeIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Projects\pythonProject\CSC3833_Coursework_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009703D-6FFD-4E09-8C9A-35EB539053ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC0D3C0-F117-44B5-9CE3-696C4ED24FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OECD.Stat export" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="123">
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="BLI" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Better Life Index&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indicateur du vivre mieux&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CAN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Canada&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Canada&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="COL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Colombia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Colombie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CRI" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Costa Rica&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Costa Rica&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GRC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Greece&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Grèce&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Iceland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Islande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="IRL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Ireland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Irlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Israel&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Israël&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LUX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Luxembourg&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Luxembourg&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NZL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;New Zealand&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Nouvelle-Zélande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="POL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Poland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pologne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovenia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Slovénie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SWE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Sweden&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suède&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TUR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Türkiye&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Türkiye&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OECD" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;OECD - Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;OCDE - Total&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NMEC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Non-OECD Economies&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Économies non-OCDE&lt;/Name&gt;&lt;ChildMember Code="BRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Brazil&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Brésil&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="RUS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Russia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Russie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ZAF" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;South Africa&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Afrique du Sud&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="INDICATOR" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Indicator&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indicateur&lt;/Name&gt;&lt;Member Code="HO" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Housing&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Logement&lt;/Name&gt;&lt;ChildMember Code="HO_BASE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0" IsDisplayed="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Dwellings without basic facilities&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Logements sans équipements sanitaires de base&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="HO_HISH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Housing expenditure&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût du logement&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="HO_NUMR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Rooms per person&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Nombre de pièces par personne&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="IW" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenu&lt;/Name&gt;&lt;ChildMember Code="IW_HADI" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Household net adjusted disposable income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenu disponible ajusté net des ménages&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="IW_HNFW" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Household net wealth&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Patrimoine net des ménages&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="JE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Jobs&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Emploi&lt;/Name&gt;&lt;ChildMember Code="JE_LMIS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour market insecurity&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Insécurité sur le marché du travail&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="JE_EMPL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Employment rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux d’emploi&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="JE_LTUR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Long-term unemployment rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux de chômage de longue durée&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="JE_PEARN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Personal earnings&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenus moyens d’activité&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="SC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Community&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Liens sociaux&lt;/Name&gt;&lt;ChildMember Code="SC_SNTWS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Quality of support network&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Qualité du réseau social&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="ES" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Enseignement&lt;/Name&gt;&lt;ChildMember Code="ES_EDUA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Educational attainment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Niveau d’instruction&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ES_STCS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Student skills&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Compétences des élèves&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ES_EDUEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Years in education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Années de scolarité&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="EQ" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Environment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Environnement&lt;/Name&gt;&lt;ChildMember Code="EQ_AIRP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Air pollution&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pollution atmosphérique&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="EQ_WATER" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Water quality&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Qualité de l’eau&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="CG" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Civic engagement&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Engagement civique&lt;/Name&gt;&lt;ChildMember Code="CG_SENG" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Stakeholder engagement for developing regulations&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Participation des parties prenantes à l’élaboration de la réglementation&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="CG_VOTO" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Voter turnout&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Participation électorale&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="HS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Health&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Santé&lt;/Name&gt;&lt;ChildMember Code="HS_LEB" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Life expectancy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espérance de vie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="HS_SFRH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Self-reported health&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Auto-évaluation de l’état de santé&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="SW" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Life Satisfaction&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Satisfaction&lt;/Name&gt;&lt;ChildMember Code="SW_LIFS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Life satisfaction&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Satisfaction à l’égard de la vie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="PS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Safety&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Sécurité&lt;/Name&gt;&lt;ChildMember Code="PS_FSAFEN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Feeling safe walking alone at night&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Se sentir en sécurité quand on marche seul la nuit&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="PS_REPH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Homicide rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux d’homicides&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="WL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Work-Life Balance&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Équilibre travail-vie&lt;/Name&gt;&lt;ChildMember Code="WL_EWLH" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Employees working very long hours&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Horaires de travail lourds&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="WL_TNOW" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Time devoted to leisure and personal care&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps consacré aux loisirs et à soi&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="MEASURE" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Measure&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mesure&lt;/Name&gt;&lt;Member Code="L" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="INEQUALITY" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Inequality&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Inégalité&lt;/Name&gt;&lt;Member Code="TOT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Total&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Men&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Homme&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="WMN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Women&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Femme&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HGH" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;High&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Haut&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LW" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Low&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Bas&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="INDICATOR" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" CommonCode="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="INEQUALITY" /&gt;&lt;Dimension Code="MEASURE" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;-1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;false&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=86595&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
   </si>
@@ -372,45 +372,18 @@
     <t>OCED</t>
   </si>
   <si>
-    <t>Continent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oceania</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> North America</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> South America</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asia</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>South America</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>United States of America</t>
   </si>
   <si>
@@ -418,13 +391,25 @@
   </si>
   <si>
     <t>South Korea</t>
+  </si>
+  <si>
+    <t>Percentage %</t>
+  </si>
+  <si>
+    <t>USD $</t>
+  </si>
+  <si>
+    <t>Average Score</t>
+  </si>
+  <si>
+    <t>Binary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -488,13 +473,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -521,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,16 +538,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -743,28 +716,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -792,31 +749,78 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,59 +850,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1181,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" topLeftCell="P6" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1257,128 +1212,128 @@
       <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="1:27" ht="14.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="43"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="24"/>
     </row>
     <row r="4" spans="1:27" ht="14.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="43"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="24"/>
     </row>
     <row r="5" spans="1:27" ht="42.75">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="44" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="44" t="s">
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="46"/>
-      <c r="S5" s="44" t="s">
+      <c r="R5" s="27"/>
+      <c r="S5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="44" t="s">
+      <c r="T5" s="27"/>
+      <c r="U5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="46"/>
+      <c r="V5" s="27"/>
       <c r="W5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="44" t="s">
+      <c r="X5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="44" t="s">
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="46"/>
+      <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:27" ht="128.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1453,11 +1408,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="57">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="9" t="s">
         <v>43</v>
       </c>
@@ -1532,10 +1487,10 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="10" t="s">
         <v>51</v>
       </c>
@@ -1613,10 +1568,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10" t="s">
         <v>51</v>
       </c>
@@ -1694,10 +1649,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10" t="s">
         <v>51</v>
       </c>
@@ -1775,10 +1730,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="10" t="s">
         <v>51</v>
       </c>
@@ -1856,10 +1811,10 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10" t="s">
         <v>51</v>
       </c>
@@ -1937,10 +1892,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10" t="s">
         <v>51</v>
       </c>
@@ -2018,10 +1973,10 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
@@ -2099,10 +2054,10 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="10" t="s">
         <v>51</v>
       </c>
@@ -2180,10 +2135,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="10" t="s">
         <v>51</v>
       </c>
@@ -2261,10 +2216,10 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15.75">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
@@ -2342,10 +2297,10 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="10" t="s">
         <v>51</v>
       </c>
@@ -2423,10 +2378,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="15.75">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
@@ -2504,10 +2459,10 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15.75">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="10" t="s">
         <v>51</v>
       </c>
@@ -2585,10 +2540,10 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="15.75">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
@@ -2666,10 +2621,10 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="15.75">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="10" t="s">
         <v>51</v>
       </c>
@@ -2747,10 +2702,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="15.75">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="10" t="s">
         <v>51</v>
       </c>
@@ -2828,10 +2783,10 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="15.75">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="10" t="s">
         <v>51</v>
       </c>
@@ -2909,10 +2864,10 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="15.75">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="10" t="s">
         <v>51</v>
       </c>
@@ -2990,10 +2945,10 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="15.75">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
@@ -3071,10 +3026,10 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="15.75">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
@@ -3152,10 +3107,10 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15.75">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="10" t="s">
         <v>51</v>
       </c>
@@ -3233,10 +3188,10 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="15.75">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="10" t="s">
         <v>51</v>
       </c>
@@ -3314,10 +3269,10 @@
       </c>
     </row>
     <row r="30" spans="1:27" ht="15.75">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
@@ -3395,10 +3350,10 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="15.75">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="10" t="s">
         <v>51</v>
       </c>
@@ -3476,10 +3431,10 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="15.75">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="10" t="s">
         <v>51</v>
       </c>
@@ -3557,10 +3512,10 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="15.75">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="10" t="s">
         <v>51</v>
       </c>
@@ -3638,10 +3593,10 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="15.75">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="10" t="s">
         <v>51</v>
       </c>
@@ -3719,10 +3674,10 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="15.75">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="10" t="s">
         <v>51</v>
       </c>
@@ -3800,10 +3755,10 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="15.75">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="10" t="s">
         <v>51</v>
       </c>
@@ -3881,10 +3836,10 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="15.75">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="10" t="s">
         <v>51</v>
       </c>
@@ -3962,10 +3917,10 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="15.75">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="10" t="s">
         <v>51</v>
       </c>
@@ -4043,10 +3998,10 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="15.75">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="10" t="s">
         <v>51</v>
       </c>
@@ -4124,10 +4079,10 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="15.75">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="10" t="s">
         <v>51</v>
       </c>
@@ -4205,10 +4160,10 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="15.75">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="10" t="s">
         <v>51</v>
       </c>
@@ -4286,10 +4241,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="15.75">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="10" t="s">
         <v>51</v>
       </c>
@@ -4367,10 +4322,10 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="15.75">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="10" t="s">
         <v>51</v>
       </c>
@@ -4448,10 +4403,10 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="15.75">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="10" t="s">
         <v>51</v>
       </c>
@@ -4529,10 +4484,10 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="15.75">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="10" t="s">
         <v>51</v>
       </c>
@@ -4610,10 +4565,10 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="15.75">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="10" t="s">
         <v>51</v>
       </c>
@@ -4691,10 +4646,10 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="15.75">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="10" t="s">
         <v>51</v>
       </c>
@@ -4772,7 +4727,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="15.75">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="37" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -4855,7 +4810,7 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="15.75">
-      <c r="A49" s="23"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
@@ -4936,7 +4891,7 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="15.75">
-      <c r="A50" s="24"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="3" t="s">
         <v>95</v>
       </c>
@@ -5049,46 +5004,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AA3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AA4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A5:C6"/>
@@ -5105,6 +5020,46 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AA3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AA4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5143,10 +5098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5160,7 +5115,7 @@
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34" customWidth="1"/>
     <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -5180,3637 +5135,3562 @@
     <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:26">
       <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" t="s">
+        <v>121</v>
+      </c>
+      <c r="V2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15">
+      <c r="A3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="14">
+        <v>37433</v>
+      </c>
+      <c r="F3" s="14">
+        <v>528768</v>
+      </c>
+      <c r="G3" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>73</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>55206</v>
+      </c>
+      <c r="K3" s="14">
+        <v>93</v>
+      </c>
+      <c r="L3" s="14">
+        <v>84</v>
+      </c>
+      <c r="M3" s="14">
+        <v>499</v>
+      </c>
+      <c r="N3" s="14">
+        <v>20</v>
+      </c>
+      <c r="O3" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="P3" s="14">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="R3" s="14">
+        <v>92</v>
+      </c>
+      <c r="S3" s="14">
+        <v>83</v>
+      </c>
+      <c r="T3" s="14">
+        <v>85</v>
+      </c>
+      <c r="U3" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="V3" s="14">
+        <v>67</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="X3" s="14">
+        <v>12.5</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>14.36</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15">
+      <c r="A4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>20.8</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="15">
+        <v>37001</v>
+      </c>
+      <c r="F4" s="15">
+        <v>309637</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H4" s="15">
+        <v>72</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="J4" s="15">
+        <v>53132</v>
+      </c>
+      <c r="K4" s="15">
+        <v>92</v>
+      </c>
+      <c r="L4" s="15">
+        <v>86</v>
+      </c>
+      <c r="M4" s="15">
+        <v>491</v>
+      </c>
+      <c r="N4" s="15">
+        <v>17</v>
+      </c>
+      <c r="O4" s="15">
+        <v>12.2</v>
+      </c>
+      <c r="P4" s="15">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="R4" s="15">
+        <v>76</v>
+      </c>
+      <c r="S4" s="15">
+        <v>82</v>
+      </c>
+      <c r="T4" s="15">
+        <v>71</v>
+      </c>
+      <c r="U4" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="V4" s="15">
+        <v>86</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>14.51</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15">
+      <c r="A5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="14">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>34884</v>
+      </c>
+      <c r="F5" s="14">
+        <v>447607</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="H5" s="14">
+        <v>65</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J5" s="14">
+        <v>54327</v>
+      </c>
+      <c r="K5" s="14">
+        <v>90</v>
+      </c>
+      <c r="L5" s="14">
+        <v>80</v>
+      </c>
+      <c r="M5" s="14">
+        <v>500</v>
+      </c>
+      <c r="N5" s="14">
+        <v>19</v>
+      </c>
+      <c r="O5" s="14">
+        <v>12.8</v>
+      </c>
+      <c r="P5" s="14">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>2</v>
+      </c>
+      <c r="R5" s="14">
+        <v>88</v>
+      </c>
+      <c r="S5" s="14">
+        <v>82.1</v>
+      </c>
+      <c r="T5" s="14">
+        <v>74</v>
+      </c>
+      <c r="U5" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="V5" s="14">
+        <v>56</v>
+      </c>
+      <c r="W5" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X5" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>15.52</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15">
+      <c r="A6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>22.9</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="E6" s="15">
+        <v>34421</v>
+      </c>
+      <c r="F6" s="15">
+        <v>478240</v>
+      </c>
+      <c r="G6" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="H6" s="15">
+        <v>70</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="15">
+        <v>55342</v>
+      </c>
+      <c r="K6" s="15">
+        <v>93</v>
+      </c>
+      <c r="L6" s="15">
+        <v>92</v>
+      </c>
+      <c r="M6" s="15">
+        <v>517</v>
+      </c>
+      <c r="N6" s="15">
+        <v>17</v>
+      </c>
+      <c r="O6" s="15">
+        <v>7.1</v>
+      </c>
+      <c r="P6" s="15">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="R6" s="15">
+        <v>68</v>
+      </c>
+      <c r="S6" s="15">
+        <v>82.1</v>
+      </c>
+      <c r="T6" s="15">
+        <v>89</v>
+      </c>
+      <c r="U6" s="15">
+        <v>7</v>
+      </c>
+      <c r="V6" s="15">
+        <v>78</v>
+      </c>
+      <c r="W6" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="X6" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>14.57</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15">
+      <c r="A7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="16">
+        <v>9.4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="14">
+        <v>135787</v>
+      </c>
+      <c r="G7" s="14">
+        <v>7</v>
+      </c>
+      <c r="H7" s="14">
+        <v>56</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="14">
+        <v>26729</v>
+      </c>
+      <c r="K7" s="14">
+        <v>88</v>
+      </c>
+      <c r="L7" s="14">
+        <v>67</v>
+      </c>
+      <c r="M7" s="14">
+        <v>438</v>
+      </c>
+      <c r="N7" s="14">
+        <v>17</v>
+      </c>
+      <c r="O7" s="14">
+        <v>23.4</v>
+      </c>
+      <c r="P7" s="14">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="R7" s="14">
+        <v>47</v>
+      </c>
+      <c r="S7" s="14">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="T7" s="14">
+        <v>60</v>
+      </c>
+      <c r="U7" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="V7" s="14">
+        <v>41</v>
+      </c>
+      <c r="W7" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="X7" s="14">
+        <v>7.7</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15">
+      <c r="A8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="17">
+        <v>12.3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="15">
+        <v>58</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="15">
+        <v>80</v>
+      </c>
+      <c r="L8" s="15">
+        <v>59</v>
+      </c>
+      <c r="M8" s="15">
+        <v>406</v>
+      </c>
+      <c r="N8" s="15">
+        <v>14</v>
+      </c>
+      <c r="O8" s="15">
+        <v>22.6</v>
+      </c>
+      <c r="P8" s="15">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="R8" s="15">
+        <v>53</v>
+      </c>
+      <c r="S8" s="15">
+        <v>76.7</v>
+      </c>
+      <c r="T8" s="15">
+        <v>80</v>
+      </c>
+      <c r="U8" s="15">
+        <v>5.7</v>
+      </c>
+      <c r="V8" s="15">
+        <v>50</v>
+      </c>
+      <c r="W8" s="15">
+        <v>23.1</v>
+      </c>
+      <c r="X8" s="15">
+        <v>23.7</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15">
+      <c r="A9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C9" s="14">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>16517</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="14">
+        <v>55</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="14">
+        <v>82</v>
+      </c>
+      <c r="L9" s="14">
+        <v>43</v>
+      </c>
+      <c r="M9" s="14">
+        <v>415</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="P9" s="14">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="R9" s="14">
+        <v>66</v>
+      </c>
+      <c r="S9" s="14">
+        <v>80.5</v>
+      </c>
+      <c r="T9" s="14">
+        <v>73</v>
+      </c>
+      <c r="U9" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="V9" s="14">
+        <v>47</v>
+      </c>
+      <c r="W9" s="14">
+        <v>10</v>
+      </c>
+      <c r="X9" s="14">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15">
+      <c r="A10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>23.4</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="15">
+        <v>26664</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H10" s="15">
+        <v>74</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="15">
+        <v>29885</v>
+      </c>
+      <c r="K10" s="15">
+        <v>96</v>
+      </c>
+      <c r="L10" s="15">
+        <v>94</v>
+      </c>
+      <c r="M10" s="15">
+        <v>495</v>
+      </c>
+      <c r="N10" s="15">
+        <v>18</v>
+      </c>
+      <c r="O10" s="15">
+        <v>17</v>
+      </c>
+      <c r="P10" s="15">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="R10" s="15">
+        <v>62</v>
+      </c>
+      <c r="S10" s="15">
+        <v>79.3</v>
+      </c>
+      <c r="T10" s="15">
+        <v>62</v>
+      </c>
+      <c r="U10" s="15">
+        <v>6.9</v>
+      </c>
+      <c r="V10" s="15">
+        <v>77</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="X10" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15">
+      <c r="A11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="14">
+        <v>23.3</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="E11" s="14">
+        <v>33774</v>
+      </c>
+      <c r="F11" s="14">
+        <v>149864</v>
+      </c>
+      <c r="G11" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="H11" s="14">
+        <v>74</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="14">
+        <v>58430</v>
+      </c>
+      <c r="K11" s="14">
+        <v>95</v>
+      </c>
+      <c r="L11" s="14">
+        <v>82</v>
+      </c>
+      <c r="M11" s="14">
+        <v>501</v>
+      </c>
+      <c r="N11" s="14">
+        <v>19</v>
+      </c>
+      <c r="O11" s="14">
+        <v>10</v>
+      </c>
+      <c r="P11" s="14">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>2</v>
+      </c>
+      <c r="R11" s="14">
+        <v>85</v>
+      </c>
+      <c r="S11" s="14">
+        <v>81.5</v>
+      </c>
+      <c r="T11" s="14">
+        <v>70</v>
+      </c>
+      <c r="U11" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="V11" s="14">
+        <v>85</v>
+      </c>
+      <c r="W11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15">
+      <c r="A12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="17">
+        <v>5.7</v>
+      </c>
+      <c r="C12" s="15">
+        <v>17</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="E12" s="15">
+        <v>23784</v>
+      </c>
+      <c r="F12" s="15">
+        <v>188627</v>
+      </c>
+      <c r="G12" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="H12" s="15">
+        <v>74</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="J12" s="15">
+        <v>30720</v>
+      </c>
+      <c r="K12" s="15">
+        <v>95</v>
+      </c>
+      <c r="L12" s="15">
+        <v>91</v>
+      </c>
+      <c r="M12" s="15">
+        <v>526</v>
+      </c>
+      <c r="N12" s="15">
+        <v>18</v>
+      </c>
+      <c r="O12" s="15">
+        <v>5.9</v>
+      </c>
+      <c r="P12" s="15">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="R12" s="15">
+        <v>64</v>
+      </c>
+      <c r="S12" s="15">
+        <v>78.8</v>
+      </c>
+      <c r="T12" s="15">
+        <v>57</v>
+      </c>
+      <c r="U12" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="V12" s="15">
+        <v>79</v>
+      </c>
+      <c r="W12" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="X12" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>14.98</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15">
+      <c r="A13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="14">
+        <v>23.1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="E13" s="14">
+        <v>33471</v>
+      </c>
+      <c r="F13" s="14">
+        <v>230032</v>
+      </c>
+      <c r="G13" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H13" s="14">
+        <v>72</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="J13" s="14">
+        <v>46230</v>
+      </c>
+      <c r="K13" s="14">
+        <v>96</v>
+      </c>
+      <c r="L13" s="14">
+        <v>91</v>
+      </c>
+      <c r="M13" s="14">
+        <v>516</v>
+      </c>
+      <c r="N13" s="14">
+        <v>20</v>
+      </c>
+      <c r="O13" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="P13" s="14">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R13" s="14">
+        <v>69</v>
+      </c>
+      <c r="S13" s="14">
+        <v>82.1</v>
+      </c>
+      <c r="T13" s="14">
+        <v>68</v>
+      </c>
+      <c r="U13" s="14">
+        <v>7.9</v>
+      </c>
+      <c r="V13" s="14">
+        <v>88</v>
+      </c>
+      <c r="W13" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="X13" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>15.17</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15">
+      <c r="A14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="15">
+        <v>20.7</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="E14" s="15">
+        <v>34375</v>
+      </c>
+      <c r="F14" s="15">
+        <v>298639</v>
+      </c>
+      <c r="G14" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>65</v>
+      </c>
+      <c r="I14" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="J14" s="15">
+        <v>45581</v>
+      </c>
+      <c r="K14" s="15">
+        <v>94</v>
+      </c>
+      <c r="L14" s="15">
+        <v>81</v>
+      </c>
+      <c r="M14" s="15">
+        <v>494</v>
+      </c>
+      <c r="N14" s="15">
+        <v>17</v>
+      </c>
+      <c r="O14" s="15">
+        <v>11.4</v>
+      </c>
+      <c r="P14" s="15">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="R14" s="15">
+        <v>75</v>
+      </c>
+      <c r="S14" s="15">
+        <v>82.9</v>
+      </c>
+      <c r="T14" s="15">
+        <v>67</v>
+      </c>
+      <c r="U14" s="15">
+        <v>6.7</v>
+      </c>
+      <c r="V14" s="15">
+        <v>74</v>
+      </c>
+      <c r="W14" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="X14" s="15">
+        <v>7.7</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>16.2</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15">
+      <c r="A15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="14">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="E15" s="14">
+        <v>38971</v>
+      </c>
+      <c r="F15" s="14">
+        <v>304317</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="H15" s="14">
+        <v>77</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="J15" s="14">
+        <v>53745</v>
+      </c>
+      <c r="K15" s="14">
+        <v>90</v>
+      </c>
+      <c r="L15" s="14">
+        <v>86</v>
+      </c>
+      <c r="M15" s="14">
+        <v>500</v>
+      </c>
+      <c r="N15" s="14">
+        <v>18</v>
+      </c>
+      <c r="O15" s="14">
+        <v>12</v>
+      </c>
+      <c r="P15" s="14">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="R15" s="14">
+        <v>76</v>
+      </c>
+      <c r="S15" s="14">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="T15" s="14">
+        <v>66</v>
+      </c>
+      <c r="U15" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="V15" s="14">
+        <v>76</v>
+      </c>
+      <c r="W15" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="X15" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>15.62</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15">
+      <c r="A16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>21.8</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>20791</v>
+      </c>
+      <c r="F16" s="15">
+        <v>148323</v>
+      </c>
+      <c r="G16" s="15">
+        <v>21.7</v>
+      </c>
+      <c r="H16" s="15">
+        <v>56</v>
+      </c>
+      <c r="I16" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="J16" s="15">
+        <v>27207</v>
+      </c>
+      <c r="K16" s="15">
+        <v>78</v>
+      </c>
+      <c r="L16" s="15">
+        <v>76</v>
+      </c>
+      <c r="M16" s="15">
+        <v>453</v>
+      </c>
+      <c r="N16" s="15">
+        <v>19</v>
+      </c>
+      <c r="O16" s="15">
+        <v>14.5</v>
+      </c>
+      <c r="P16" s="15">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="R16" s="15">
+        <v>58</v>
+      </c>
+      <c r="S16" s="15">
+        <v>81.7</v>
+      </c>
+      <c r="T16" s="15">
+        <v>79</v>
+      </c>
+      <c r="U16" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="V16" s="15">
+        <v>69</v>
+      </c>
+      <c r="W16" s="15">
+        <v>1</v>
+      </c>
+      <c r="X16" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>15.03</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15">
+      <c r="A17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="C17" s="14">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E17" s="14">
+        <v>21026</v>
+      </c>
+      <c r="F17" s="14">
+        <v>150296</v>
+      </c>
+      <c r="G17" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="H17" s="14">
+        <v>70</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="J17" s="14">
+        <v>25409</v>
+      </c>
+      <c r="K17" s="14">
+        <v>94</v>
+      </c>
+      <c r="L17" s="14">
+        <v>86</v>
+      </c>
+      <c r="M17" s="14">
+        <v>479</v>
+      </c>
+      <c r="N17" s="14">
+        <v>16</v>
+      </c>
+      <c r="O17" s="14">
+        <v>16.7</v>
+      </c>
+      <c r="P17" s="14">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="R17" s="14">
+        <v>70</v>
+      </c>
+      <c r="S17" s="14">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="T17" s="14">
+        <v>58</v>
+      </c>
+      <c r="U17" s="14">
+        <v>6</v>
+      </c>
+      <c r="V17" s="14">
+        <v>74</v>
+      </c>
+      <c r="W17" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="X17" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>15.08</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15">
+      <c r="A18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>78</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="J18" s="15">
+        <v>67488</v>
+      </c>
+      <c r="K18" s="15">
+        <v>98</v>
+      </c>
+      <c r="L18" s="15">
+        <v>76</v>
+      </c>
+      <c r="M18" s="15">
+        <v>481</v>
+      </c>
+      <c r="N18" s="15">
+        <v>19</v>
+      </c>
+      <c r="O18" s="15">
+        <v>6.4</v>
+      </c>
+      <c r="P18" s="15">
+        <v>97</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="R18" s="15">
+        <v>81</v>
+      </c>
+      <c r="S18" s="15">
+        <v>83.2</v>
+      </c>
+      <c r="T18" s="15">
+        <v>77</v>
+      </c>
+      <c r="U18" s="15">
+        <v>7.6</v>
+      </c>
+      <c r="V18" s="15">
+        <v>85</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="X18" s="15">
+        <v>11.7</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15">
+      <c r="A19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>20.6</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="E19" s="14">
+        <v>29488</v>
+      </c>
+      <c r="F19" s="14">
+        <v>370341</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="H19" s="14">
+        <v>68</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="J19" s="14">
+        <v>49474</v>
+      </c>
+      <c r="K19" s="14">
+        <v>96</v>
+      </c>
+      <c r="L19" s="14">
+        <v>85</v>
+      </c>
+      <c r="M19" s="14">
+        <v>505</v>
+      </c>
+      <c r="N19" s="14">
+        <v>18</v>
+      </c>
+      <c r="O19" s="14">
+        <v>7.8</v>
+      </c>
+      <c r="P19" s="14">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="R19" s="14">
+        <v>63</v>
+      </c>
+      <c r="S19" s="14">
+        <v>82.8</v>
+      </c>
+      <c r="T19" s="14">
+        <v>84</v>
+      </c>
+      <c r="U19" s="14">
+        <v>7</v>
+      </c>
+      <c r="V19" s="14">
+        <v>76</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="X19" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>14.54</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15">
+      <c r="A20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H20" s="15">
+        <v>67</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="15">
+        <v>39322</v>
+      </c>
+      <c r="K20" s="15">
+        <v>95</v>
+      </c>
+      <c r="L20" s="15">
+        <v>88</v>
+      </c>
+      <c r="M20" s="15">
+        <v>465</v>
+      </c>
+      <c r="N20" s="15">
+        <v>16</v>
+      </c>
+      <c r="O20" s="15">
+        <v>19.7</v>
+      </c>
+      <c r="P20" s="15">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="R20" s="15">
+        <v>67</v>
+      </c>
+      <c r="S20" s="15">
+        <v>82.9</v>
+      </c>
+      <c r="T20" s="15">
+        <v>74</v>
+      </c>
+      <c r="U20" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="V20" s="15">
+        <v>80</v>
+      </c>
+      <c r="W20" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="X20" s="15">
+        <v>14.1</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15">
+      <c r="A21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="14">
+        <v>22.5</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E21" s="14">
+        <v>29431</v>
+      </c>
+      <c r="F21" s="14">
+        <v>295020</v>
+      </c>
+      <c r="G21" s="14">
+        <v>8.6</v>
+      </c>
+      <c r="H21" s="14">
+        <v>58</v>
+      </c>
+      <c r="I21" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="J21" s="14">
+        <v>37769</v>
+      </c>
+      <c r="K21" s="14">
+        <v>89</v>
+      </c>
+      <c r="L21" s="14">
+        <v>63</v>
+      </c>
+      <c r="M21" s="14">
+        <v>477</v>
+      </c>
+      <c r="N21" s="14">
+        <v>17</v>
+      </c>
+      <c r="O21" s="14">
+        <v>15.9</v>
+      </c>
+      <c r="P21" s="14">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="R21" s="14">
+        <v>73</v>
+      </c>
+      <c r="S21" s="14">
+        <v>83.6</v>
+      </c>
+      <c r="T21" s="14">
+        <v>73</v>
+      </c>
+      <c r="U21" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="V21" s="14">
+        <v>73</v>
+      </c>
+      <c r="W21" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="X21" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>16.47</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15">
+      <c r="A22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="17">
+        <v>6.4</v>
+      </c>
+      <c r="C22" s="15">
+        <v>21.8</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="E22" s="15">
+        <v>28872</v>
+      </c>
+      <c r="F22" s="15">
+        <v>294735</v>
+      </c>
+      <c r="G22" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="H22" s="15">
+        <v>77</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="15">
+        <v>38515</v>
+      </c>
+      <c r="K22" s="15">
+        <v>89</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="15">
+        <v>520</v>
+      </c>
+      <c r="N22" s="15">
+        <v>16</v>
+      </c>
+      <c r="O22" s="15">
+        <v>13.7</v>
+      </c>
+      <c r="P22" s="15">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="R22" s="15">
+        <v>53</v>
+      </c>
+      <c r="S22" s="15">
+        <v>84.4</v>
+      </c>
+      <c r="T22" s="15">
+        <v>37</v>
+      </c>
+      <c r="U22" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="V22" s="15">
+        <v>77</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y22" s="15">
+        <v>14.1</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15">
+      <c r="A23" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="14">
+        <v>14.7</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="14">
+        <v>24590</v>
+      </c>
+      <c r="F23" s="14">
+        <v>362340</v>
+      </c>
+      <c r="G23" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="H23" s="14">
+        <v>66</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>41960</v>
+      </c>
+      <c r="K23" s="14">
+        <v>80</v>
+      </c>
+      <c r="L23" s="14">
+        <v>89</v>
+      </c>
+      <c r="M23" s="14">
+        <v>520</v>
+      </c>
+      <c r="N23" s="14">
+        <v>17</v>
+      </c>
+      <c r="O23" s="14">
+        <v>27.3</v>
+      </c>
+      <c r="P23" s="14">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="R23" s="14">
+        <v>77</v>
+      </c>
+      <c r="S23" s="14">
+        <v>83.3</v>
+      </c>
+      <c r="T23" s="14">
+        <v>34</v>
+      </c>
+      <c r="U23" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="V23" s="14">
+        <v>82</v>
+      </c>
+      <c r="W23" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="X23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>14.83</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15">
+      <c r="A24" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="17">
+        <v>11.2</v>
+      </c>
+      <c r="C24" s="15">
+        <v>20.8</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="E24" s="15">
+        <v>19783</v>
+      </c>
+      <c r="F24" s="15">
+        <v>79245</v>
+      </c>
+      <c r="G24" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="H24" s="15">
+        <v>72</v>
+      </c>
+      <c r="I24" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J24" s="15">
+        <v>29876</v>
+      </c>
+      <c r="K24" s="15">
+        <v>92</v>
+      </c>
+      <c r="L24" s="15">
+        <v>89</v>
+      </c>
+      <c r="M24" s="15">
+        <v>487</v>
+      </c>
+      <c r="N24" s="15">
+        <v>18</v>
+      </c>
+      <c r="O24" s="15">
+        <v>12.7</v>
+      </c>
+      <c r="P24" s="15">
+        <v>83</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R24" s="15">
+        <v>55</v>
+      </c>
+      <c r="S24" s="15">
+        <v>75.5</v>
+      </c>
+      <c r="T24" s="15">
+        <v>47</v>
+      </c>
+      <c r="U24" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="V24" s="15">
+        <v>72</v>
+      </c>
+      <c r="W24" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="X24" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15">
+      <c r="A25" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="16">
+        <v>11.8</v>
+      </c>
+      <c r="C25" s="14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="14">
+        <v>26976</v>
+      </c>
+      <c r="F25" s="14">
+        <v>182039</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="14">
+        <v>72</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="J25" s="14">
+        <v>31811</v>
+      </c>
+      <c r="K25" s="14">
+        <v>89</v>
+      </c>
+      <c r="L25" s="14">
+        <v>94</v>
+      </c>
+      <c r="M25" s="14">
+        <v>480</v>
+      </c>
+      <c r="N25" s="14">
+        <v>18</v>
+      </c>
+      <c r="O25" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="P25" s="14">
+        <v>83</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="R25" s="14">
+        <v>57</v>
+      </c>
+      <c r="S25" s="14">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="T25" s="14">
+        <v>46</v>
+      </c>
+      <c r="U25" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="V25" s="14">
+        <v>62</v>
+      </c>
+      <c r="W25" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="X25" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15">
+      <c r="A26" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="15">
+        <v>20.7</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>44773</v>
+      </c>
+      <c r="F26" s="15">
+        <v>941162</v>
+      </c>
+      <c r="G26" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H26" s="15">
+        <v>67</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="J26" s="15">
+        <v>65854</v>
+      </c>
+      <c r="K26" s="15">
+        <v>91</v>
+      </c>
+      <c r="L26" s="15">
+        <v>74</v>
+      </c>
+      <c r="M26" s="15">
+        <v>477</v>
+      </c>
+      <c r="N26" s="15">
+        <v>15</v>
+      </c>
+      <c r="O26" s="15">
+        <v>10</v>
+      </c>
+      <c r="P26" s="15">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="R26" s="15">
+        <v>90</v>
+      </c>
+      <c r="S26" s="15">
+        <v>82.7</v>
+      </c>
+      <c r="T26" s="15">
+        <v>72</v>
+      </c>
+      <c r="U26" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="V26" s="15">
+        <v>87</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="X26" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="Y26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15">
+      <c r="A27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="16">
+        <v>25.9</v>
+      </c>
+      <c r="C27" s="14">
+        <v>17.8</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E27" s="14">
+        <v>16269</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14">
+        <v>59</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="14">
+        <v>16230</v>
+      </c>
+      <c r="K27" s="14">
+        <v>77</v>
+      </c>
+      <c r="L27" s="14">
+        <v>42</v>
+      </c>
+      <c r="M27" s="14">
+        <v>416</v>
+      </c>
+      <c r="N27" s="14">
+        <v>15</v>
+      </c>
+      <c r="O27" s="14">
+        <v>20.3</v>
+      </c>
+      <c r="P27" s="14">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="R27" s="14">
+        <v>63</v>
+      </c>
+      <c r="S27" s="14">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="T27" s="14">
+        <v>66</v>
+      </c>
+      <c r="U27" s="14">
+        <v>6</v>
+      </c>
+      <c r="V27" s="14">
+        <v>42</v>
+      </c>
+      <c r="W27" s="14">
+        <v>26.8</v>
+      </c>
+      <c r="X27" s="14">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15">
+      <c r="A28" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="15">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D28" s="15">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15">
+        <v>34984</v>
+      </c>
+      <c r="F28" s="15">
+        <v>248599</v>
+      </c>
+      <c r="G28" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="15">
+        <v>78</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="J28" s="15">
+        <v>58828</v>
+      </c>
+      <c r="K28" s="15">
+        <v>94</v>
+      </c>
+      <c r="L28" s="15">
+        <v>81</v>
+      </c>
+      <c r="M28" s="15">
+        <v>502</v>
+      </c>
+      <c r="N28" s="15">
+        <v>19</v>
+      </c>
+      <c r="O28" s="15">
+        <v>12.2</v>
+      </c>
+      <c r="P28" s="15">
+        <v>91</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>2.6</v>
+      </c>
+      <c r="R28" s="15">
+        <v>79</v>
+      </c>
+      <c r="S28" s="15">
+        <v>82.2</v>
+      </c>
+      <c r="T28" s="15">
+        <v>75</v>
+      </c>
+      <c r="U28" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="V28" s="15">
+        <v>83</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="X28" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="Y28" s="15">
+        <v>15.45</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15">
+      <c r="A29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="14">
+        <v>25</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="E29" s="14">
+        <v>39024</v>
+      </c>
+      <c r="F29" s="14">
+        <v>514162</v>
+      </c>
+      <c r="G29" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="H29" s="14">
+        <v>77</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="J29" s="14">
+        <v>45269</v>
+      </c>
+      <c r="K29" s="14">
+        <v>95</v>
+      </c>
+      <c r="L29" s="14">
+        <v>81</v>
+      </c>
+      <c r="M29" s="14">
+        <v>503</v>
+      </c>
+      <c r="N29" s="14">
+        <v>18</v>
+      </c>
+      <c r="O29" s="14">
+        <v>6</v>
+      </c>
+      <c r="P29" s="14">
+        <v>85</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="R29" s="14">
+        <v>82</v>
+      </c>
+      <c r="S29" s="14">
+        <v>82.1</v>
+      </c>
+      <c r="T29" s="14">
+        <v>86</v>
+      </c>
+      <c r="U29" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="V29" s="14">
+        <v>66</v>
+      </c>
+      <c r="W29" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="X29" s="14">
+        <v>14</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>14.87</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15">
+      <c r="A30" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15">
+        <v>17.7</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>39144</v>
+      </c>
+      <c r="F30" s="15">
+        <v>268358</v>
+      </c>
+      <c r="G30" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="H30" s="15">
+        <v>75</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="J30" s="15">
+        <v>55780</v>
+      </c>
+      <c r="K30" s="15">
+        <v>96</v>
+      </c>
+      <c r="L30" s="15">
+        <v>82</v>
+      </c>
+      <c r="M30" s="15">
+        <v>497</v>
+      </c>
+      <c r="N30" s="15">
+        <v>18</v>
+      </c>
+      <c r="O30" s="15">
+        <v>6.7</v>
+      </c>
+      <c r="P30" s="15">
+        <v>98</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R30" s="15">
+        <v>78</v>
+      </c>
+      <c r="S30" s="15">
+        <v>83</v>
+      </c>
+      <c r="T30" s="15">
+        <v>75</v>
+      </c>
+      <c r="U30" s="15">
+        <v>7.3</v>
+      </c>
+      <c r="V30" s="15">
+        <v>93</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="X30" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>15.67</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15">
+      <c r="A31" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C31" s="14">
+        <v>21.2</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E31" s="14">
+        <v>23675</v>
+      </c>
+      <c r="F31" s="14">
+        <v>233221</v>
+      </c>
+      <c r="G31" s="14">
+        <v>5</v>
+      </c>
+      <c r="H31" s="14">
+        <v>69</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="J31" s="14">
+        <v>32527</v>
+      </c>
+      <c r="K31" s="14">
+        <v>94</v>
+      </c>
+      <c r="L31" s="14">
+        <v>93</v>
+      </c>
+      <c r="M31" s="14">
+        <v>513</v>
+      </c>
+      <c r="N31" s="14">
+        <v>18</v>
+      </c>
+      <c r="O31" s="14">
+        <v>22.8</v>
+      </c>
+      <c r="P31" s="14">
+        <v>82</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="R31" s="14">
+        <v>68</v>
+      </c>
+      <c r="S31" s="14">
+        <v>78</v>
+      </c>
+      <c r="T31" s="14">
+        <v>60</v>
+      </c>
+      <c r="U31" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="V31" s="14">
+        <v>71</v>
+      </c>
+      <c r="W31" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="X31" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>14.68</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15">
+      <c r="A32" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="C32" s="15">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="E32" s="15">
+        <v>24877</v>
+      </c>
+      <c r="F32" s="15">
+        <v>255303</v>
+      </c>
+      <c r="G32" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="H32" s="15">
+        <v>69</v>
+      </c>
+      <c r="I32" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J32" s="15">
+        <v>28410</v>
+      </c>
+      <c r="K32" s="15">
+        <v>87</v>
+      </c>
+      <c r="L32" s="15">
+        <v>55</v>
+      </c>
+      <c r="M32" s="15">
+        <v>492</v>
+      </c>
+      <c r="N32" s="15">
+        <v>17</v>
+      </c>
+      <c r="O32" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P32" s="15">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="R32" s="15">
+        <v>49</v>
+      </c>
+      <c r="S32" s="15">
+        <v>81.8</v>
+      </c>
+      <c r="T32" s="15">
+        <v>50</v>
+      </c>
+      <c r="U32" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="V32" s="15">
+        <v>83</v>
+      </c>
+      <c r="W32" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="X32" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15">
+      <c r="A33" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="C33" s="14">
+        <v>27.4</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E33" s="14">
+        <v>21149</v>
+      </c>
+      <c r="F33" s="14">
+        <v>171425</v>
+      </c>
+      <c r="G33" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H33" s="14">
+        <v>68</v>
+      </c>
+      <c r="I33" s="14">
+        <v>3</v>
+      </c>
+      <c r="J33" s="14">
+        <v>23619</v>
+      </c>
+      <c r="K33" s="14">
+        <v>95</v>
+      </c>
+      <c r="L33" s="14">
+        <v>92</v>
+      </c>
+      <c r="M33" s="14">
+        <v>469</v>
+      </c>
+      <c r="N33" s="14">
+        <v>16</v>
+      </c>
+      <c r="O33" s="14">
+        <v>18.5</v>
+      </c>
+      <c r="P33" s="14">
+        <v>81</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>3</v>
+      </c>
+      <c r="R33" s="14">
+        <v>66</v>
+      </c>
+      <c r="S33" s="14">
+        <v>77.8</v>
+      </c>
+      <c r="T33" s="14">
+        <v>65</v>
+      </c>
+      <c r="U33" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="V33" s="14">
+        <v>76</v>
+      </c>
+      <c r="W33" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="X33" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="Y33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15">
+      <c r="A34" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="15">
+        <v>18.2</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="E34" s="15">
+        <v>25250</v>
+      </c>
+      <c r="F34" s="15">
+        <v>233286</v>
+      </c>
+      <c r="G34" s="15">
+        <v>5.9</v>
+      </c>
+      <c r="H34" s="15">
+        <v>71</v>
+      </c>
+      <c r="I34" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="J34" s="15">
+        <v>41445</v>
+      </c>
+      <c r="K34" s="15">
+        <v>95</v>
+      </c>
+      <c r="L34" s="15">
+        <v>90</v>
+      </c>
+      <c r="M34" s="15">
+        <v>504</v>
+      </c>
+      <c r="N34" s="15">
+        <v>18</v>
+      </c>
+      <c r="O34" s="15">
+        <v>17</v>
+      </c>
+      <c r="P34" s="15">
+        <v>93</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="R34" s="15">
+        <v>53</v>
+      </c>
+      <c r="S34" s="15">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="T34" s="15">
+        <v>67</v>
+      </c>
+      <c r="U34" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="V34" s="15">
+        <v>91</v>
+      </c>
+      <c r="W34" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="X34" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15">
+      <c r="A35" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="C35" s="14">
+        <v>21.7</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="E35" s="14">
+        <v>27155</v>
+      </c>
+      <c r="F35" s="14">
+        <v>366534</v>
+      </c>
+      <c r="G35" s="14">
+        <v>15.8</v>
+      </c>
+      <c r="H35" s="14">
+        <v>62</v>
+      </c>
+      <c r="I35" s="14">
+        <v>5</v>
+      </c>
+      <c r="J35" s="14">
+        <v>37922</v>
+      </c>
+      <c r="K35" s="14">
+        <v>93</v>
+      </c>
+      <c r="L35" s="14">
+        <v>63</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" s="14">
+        <v>18</v>
+      </c>
+      <c r="O35" s="14">
+        <v>10</v>
+      </c>
+      <c r="P35" s="14">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="R35" s="14">
+        <v>72</v>
+      </c>
+      <c r="S35" s="14">
+        <v>83.9</v>
+      </c>
+      <c r="T35" s="14">
+        <v>75</v>
+      </c>
+      <c r="U35" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="V35" s="14">
+        <v>80</v>
+      </c>
+      <c r="W35" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="X35" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>15.75</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15">
+      <c r="A36" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1.7</v>
+      </c>
+      <c r="E36" s="15">
+        <v>33730</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H36" s="15">
+        <v>75</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1</v>
+      </c>
+      <c r="J36" s="15">
+        <v>47020</v>
+      </c>
+      <c r="K36" s="15">
+        <v>94</v>
+      </c>
+      <c r="L36" s="15">
+        <v>84</v>
+      </c>
+      <c r="M36" s="15">
+        <v>503</v>
+      </c>
+      <c r="N36" s="15">
+        <v>20</v>
+      </c>
+      <c r="O36" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="P36" s="15">
+        <v>97</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>2</v>
+      </c>
+      <c r="R36" s="15">
+        <v>87</v>
+      </c>
+      <c r="S36" s="15">
+        <v>83.2</v>
+      </c>
+      <c r="T36" s="15">
+        <v>76</v>
+      </c>
+      <c r="U36" s="15">
+        <v>7.3</v>
+      </c>
+      <c r="V36" s="15">
+        <v>79</v>
+      </c>
+      <c r="W36" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X36" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="Y36" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15">
+      <c r="A37" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="16">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14">
+        <v>21.4</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="E37" s="14">
+        <v>39697</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="14">
+        <v>80</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="J37" s="14">
+        <v>64824</v>
+      </c>
+      <c r="K37" s="14">
+        <v>94</v>
+      </c>
+      <c r="L37" s="14">
+        <v>89</v>
+      </c>
+      <c r="M37" s="14">
+        <v>498</v>
+      </c>
+      <c r="N37" s="14">
+        <v>17</v>
+      </c>
+      <c r="O37" s="14">
+        <v>10.1</v>
+      </c>
+      <c r="P37" s="14">
+        <v>96</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R37" s="14">
+        <v>45</v>
+      </c>
+      <c r="S37" s="14">
+        <v>84</v>
+      </c>
+      <c r="T37" s="14">
+        <v>81</v>
+      </c>
+      <c r="U37" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="V37" s="14">
+        <v>86</v>
+      </c>
+      <c r="W37" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="X37" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="Y37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15">
+      <c r="A38" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C38" s="15">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="15">
+        <v>13</v>
+      </c>
+      <c r="H38" s="15">
+        <v>48</v>
+      </c>
+      <c r="I38" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="15">
+        <v>85</v>
+      </c>
+      <c r="L38" s="15">
+        <v>42</v>
+      </c>
+      <c r="M38" s="15">
+        <v>462</v>
+      </c>
+      <c r="N38" s="15">
+        <v>19</v>
+      </c>
+      <c r="O38" s="15">
+        <v>27.1</v>
+      </c>
+      <c r="P38" s="15">
+        <v>62</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="R38" s="15">
+        <v>86</v>
+      </c>
+      <c r="S38" s="15">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="T38" s="15">
+        <v>67</v>
+      </c>
+      <c r="U38" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V38" s="15">
+        <v>59</v>
+      </c>
+      <c r="W38" s="15">
+        <v>1</v>
+      </c>
+      <c r="X38" s="15">
+        <v>25</v>
+      </c>
+      <c r="Y38" s="15">
+        <v>14.61</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15">
+      <c r="A39" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="14">
+        <v>23.2</v>
+      </c>
+      <c r="D39" s="14">
+        <v>2</v>
+      </c>
+      <c r="E39" s="14">
+        <v>33049</v>
+      </c>
+      <c r="F39" s="14">
+        <v>524422</v>
+      </c>
+      <c r="G39" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="H39" s="14">
+        <v>75</v>
+      </c>
+      <c r="I39" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="J39" s="14">
+        <v>47147</v>
+      </c>
+      <c r="K39" s="14">
+        <v>93</v>
+      </c>
+      <c r="L39" s="14">
+        <v>82</v>
+      </c>
+      <c r="M39" s="14">
+        <v>503</v>
+      </c>
+      <c r="N39" s="14">
+        <v>17</v>
+      </c>
+      <c r="O39" s="14">
+        <v>10.1</v>
+      </c>
+      <c r="P39" s="14">
+        <v>82</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="R39" s="14">
+        <v>68</v>
+      </c>
+      <c r="S39" s="14">
+        <v>81.3</v>
+      </c>
+      <c r="T39" s="14">
+        <v>73</v>
+      </c>
+      <c r="U39" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="V39" s="14">
+        <v>78</v>
+      </c>
+      <c r="W39" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="X39" s="14">
+        <v>10.8</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>14.94</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15">
+      <c r="A40" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="15">
+        <v>18.3</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="E40" s="15">
+        <v>51147</v>
+      </c>
+      <c r="F40" s="15">
+        <v>684500</v>
+      </c>
+      <c r="G40" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H40" s="15">
+        <v>67</v>
+      </c>
+      <c r="I40" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="15">
+        <v>69392</v>
+      </c>
+      <c r="K40" s="15">
+        <v>94</v>
+      </c>
+      <c r="L40" s="15">
+        <v>92</v>
+      </c>
+      <c r="M40" s="15">
+        <v>495</v>
+      </c>
+      <c r="N40" s="15">
+        <v>17</v>
+      </c>
+      <c r="O40" s="15">
+        <v>7.7</v>
+      </c>
+      <c r="P40" s="15">
+        <v>88</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="R40" s="15">
+        <v>65</v>
+      </c>
+      <c r="S40" s="15">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="T40" s="15">
+        <v>88</v>
+      </c>
+      <c r="U40" s="15">
+        <v>7</v>
+      </c>
+      <c r="V40" s="15">
+        <v>78</v>
+      </c>
+      <c r="W40" s="15">
+        <v>6</v>
+      </c>
+      <c r="X40" s="15">
+        <v>10.4</v>
+      </c>
+      <c r="Y40" s="15">
+        <v>14.57</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15">
+      <c r="A41" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="16">
+        <v>3</v>
+      </c>
+      <c r="C41" s="14">
+        <v>20.5</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="E41" s="14">
+        <v>30490</v>
+      </c>
+      <c r="F41" s="14">
+        <v>323960</v>
+      </c>
+      <c r="G41" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H41" s="14">
+        <v>66</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="J41" s="14">
+        <v>49165</v>
+      </c>
+      <c r="K41" s="14">
+        <v>91</v>
+      </c>
+      <c r="L41" s="14">
+        <v>79</v>
+      </c>
+      <c r="M41" s="14">
+        <v>488</v>
+      </c>
+      <c r="N41" s="14">
+        <v>18</v>
+      </c>
+      <c r="O41" s="14">
+        <v>14</v>
+      </c>
+      <c r="P41" s="14">
+        <v>84</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="R41" s="14">
+        <v>69</v>
+      </c>
+      <c r="S41" s="14">
+        <v>81</v>
+      </c>
+      <c r="T41" s="14">
+        <v>68</v>
+      </c>
+      <c r="U41" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="V41" s="14">
+        <v>74</v>
+      </c>
+      <c r="W41" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="X41" s="14">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Y41" s="14">
+        <v>15.07</v>
+      </c>
+      <c r="Z41" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="42" spans="1:26" ht="15">
+      <c r="A42" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="15">
+        <v>57</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42" s="15">
+        <v>83</v>
+      </c>
+      <c r="L42" s="15">
+        <v>57</v>
+      </c>
+      <c r="M42" s="15">
+        <v>400</v>
+      </c>
+      <c r="N42" s="15">
+        <v>16</v>
+      </c>
+      <c r="O42" s="15">
+        <v>11.7</v>
+      </c>
+      <c r="P42" s="15">
+        <v>70</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R42" s="15">
+        <v>80</v>
+      </c>
+      <c r="S42" s="15">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="U42" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="V42" s="15">
+        <v>45</v>
+      </c>
+      <c r="W42" s="15">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15">
-      <c r="A2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="14">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="14">
-        <v>37433</v>
-      </c>
-      <c r="G2" s="14">
-        <v>528768</v>
-      </c>
-      <c r="H2" s="14">
-        <v>3.1</v>
-      </c>
-      <c r="I2" s="14">
-        <v>73</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="X42" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="Y42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15">
+      <c r="A43" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="C43" s="14">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D43" s="14">
         <v>1</v>
       </c>
-      <c r="K2" s="14">
-        <v>55206</v>
-      </c>
-      <c r="L2" s="14">
-        <v>93</v>
-      </c>
-      <c r="M2" s="14">
-        <v>84</v>
-      </c>
-      <c r="N2" s="14">
-        <v>499</v>
-      </c>
-      <c r="O2" s="14">
-        <v>20</v>
-      </c>
-      <c r="P2" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>92</v>
-      </c>
-      <c r="R2" s="14">
-        <v>2.7</v>
-      </c>
-      <c r="S2" s="14">
-        <v>92</v>
-      </c>
-      <c r="T2" s="14">
-        <v>83</v>
-      </c>
-      <c r="U2" s="14">
-        <v>85</v>
-      </c>
-      <c r="V2" s="14">
-        <v>7.1</v>
-      </c>
-      <c r="W2" s="14">
-        <v>67</v>
-      </c>
-      <c r="X2" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="Y2" s="14">
-        <v>12.5</v>
-      </c>
-      <c r="Z2" s="14">
-        <v>14.36</v>
-      </c>
-      <c r="AA2" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15">
-      <c r="A3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="15">
-        <v>20.8</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="F3" s="15">
-        <v>37001</v>
-      </c>
-      <c r="G3" s="15">
-        <v>309637</v>
-      </c>
-      <c r="H3" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="E43" s="14">
+        <v>19546</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="14">
+        <v>70</v>
+      </c>
+      <c r="I43" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="14">
+        <v>89</v>
+      </c>
+      <c r="L43" s="14">
+        <v>95</v>
+      </c>
+      <c r="M43" s="14">
+        <v>481</v>
+      </c>
+      <c r="N43" s="14">
+        <v>16</v>
+      </c>
+      <c r="O43" s="14">
+        <v>11.8</v>
+      </c>
+      <c r="P43" s="14">
+        <v>62</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R43" s="14">
+        <v>68</v>
+      </c>
+      <c r="S43" s="14">
+        <v>73.2</v>
+      </c>
+      <c r="T43" s="14">
+        <v>43</v>
+      </c>
+      <c r="U43" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="V43" s="14">
+        <v>64</v>
+      </c>
+      <c r="W43" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="X43" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Y43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15">
+      <c r="A44" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="17">
+        <v>35.9</v>
+      </c>
+      <c r="C44" s="15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="15">
+        <v>9338</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="15">
+        <v>39</v>
+      </c>
+      <c r="I44" s="15">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="15">
+        <v>89</v>
+      </c>
+      <c r="L44" s="15">
+        <v>48</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44" s="15">
+        <v>28.5</v>
+      </c>
+      <c r="P44" s="15">
         <v>72</v>
       </c>
-      <c r="J3" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="K3" s="15">
-        <v>53132</v>
-      </c>
-      <c r="L3" s="15">
-        <v>92</v>
-      </c>
-      <c r="M3" s="15">
-        <v>86</v>
-      </c>
-      <c r="N3" s="15">
-        <v>491</v>
-      </c>
-      <c r="O3" s="15">
-        <v>17</v>
-      </c>
-      <c r="P3" s="15">
-        <v>12.2</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>92</v>
-      </c>
-      <c r="R3" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="S3" s="15">
-        <v>76</v>
-      </c>
-      <c r="T3" s="15">
-        <v>82</v>
-      </c>
-      <c r="U3" s="15">
-        <v>71</v>
-      </c>
-      <c r="V3" s="15">
-        <v>7.2</v>
-      </c>
-      <c r="W3" s="15">
-        <v>86</v>
-      </c>
-      <c r="X3" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="Y3" s="15">
-        <v>5.3</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>14.51</v>
-      </c>
-      <c r="AA3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15">
-      <c r="A4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="D4" s="14">
-        <v>20</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>34884</v>
-      </c>
-      <c r="G4" s="14">
-        <v>447607</v>
-      </c>
-      <c r="H4" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="I4" s="14">
-        <v>65</v>
-      </c>
-      <c r="J4" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K4" s="14">
-        <v>54327</v>
-      </c>
-      <c r="L4" s="14">
-        <v>90</v>
-      </c>
-      <c r="M4" s="14">
-        <v>80</v>
-      </c>
-      <c r="N4" s="14">
-        <v>500</v>
-      </c>
-      <c r="O4" s="14">
-        <v>19</v>
-      </c>
-      <c r="P4" s="14">
-        <v>12.8</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>79</v>
-      </c>
-      <c r="R4" s="14">
-        <v>2</v>
-      </c>
-      <c r="S4" s="14">
-        <v>88</v>
-      </c>
-      <c r="T4" s="14">
-        <v>82.1</v>
-      </c>
-      <c r="U4" s="14">
-        <v>74</v>
-      </c>
-      <c r="V4" s="14">
-        <v>6.8</v>
-      </c>
-      <c r="W4" s="14">
-        <v>56</v>
-      </c>
-      <c r="X4" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="Z4" s="14">
-        <v>15.52</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15">
-      <c r="A5" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>22.9</v>
-      </c>
-      <c r="E5" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="F5" s="15">
-        <v>34421</v>
-      </c>
-      <c r="G5" s="15">
-        <v>478240</v>
-      </c>
-      <c r="H5" s="15">
-        <v>3.8</v>
-      </c>
-      <c r="I5" s="15">
-        <v>70</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="15">
-        <v>55342</v>
-      </c>
-      <c r="L5" s="15">
-        <v>93</v>
-      </c>
-      <c r="M5" s="15">
-        <v>92</v>
-      </c>
-      <c r="N5" s="15">
-        <v>517</v>
-      </c>
-      <c r="O5" s="15">
-        <v>17</v>
-      </c>
-      <c r="P5" s="15">
-        <v>7.1</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>90</v>
-      </c>
-      <c r="R5" s="15">
-        <v>2.9</v>
-      </c>
-      <c r="S5" s="15">
-        <v>68</v>
-      </c>
-      <c r="T5" s="15">
-        <v>82.1</v>
-      </c>
-      <c r="U5" s="15">
-        <v>89</v>
-      </c>
-      <c r="V5" s="15">
-        <v>7</v>
-      </c>
-      <c r="W5" s="15">
-        <v>78</v>
-      </c>
-      <c r="X5" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>3.3</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>14.57</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15">
-      <c r="A6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="16">
-        <v>9.4</v>
-      </c>
-      <c r="D6" s="14">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="14">
-        <v>135787</v>
-      </c>
-      <c r="H6" s="14">
-        <v>7</v>
-      </c>
-      <c r="I6" s="14">
-        <v>56</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="14">
-        <v>26729</v>
-      </c>
-      <c r="L6" s="14">
-        <v>88</v>
-      </c>
-      <c r="M6" s="14">
-        <v>67</v>
-      </c>
-      <c r="N6" s="14">
-        <v>438</v>
-      </c>
-      <c r="O6" s="14">
-        <v>17</v>
-      </c>
-      <c r="P6" s="14">
-        <v>23.4</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>62</v>
-      </c>
-      <c r="R6" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="S6" s="14">
-        <v>47</v>
-      </c>
-      <c r="T6" s="14">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="U6" s="14">
-        <v>60</v>
-      </c>
-      <c r="V6" s="14">
-        <v>6.2</v>
-      </c>
-      <c r="W6" s="14">
-        <v>41</v>
-      </c>
-      <c r="X6" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>7.7</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15">
-      <c r="A7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="17">
-        <v>12.3</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="15">
-        <v>58</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="15">
-        <v>80</v>
-      </c>
-      <c r="M7" s="15">
-        <v>59</v>
-      </c>
-      <c r="N7" s="15">
-        <v>406</v>
-      </c>
-      <c r="O7" s="15">
-        <v>14</v>
-      </c>
-      <c r="P7" s="15">
-        <v>22.6</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>82</v>
-      </c>
-      <c r="R7" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="S7" s="15">
-        <v>53</v>
-      </c>
-      <c r="T7" s="15">
-        <v>76.7</v>
-      </c>
-      <c r="U7" s="15">
-        <v>80</v>
-      </c>
-      <c r="V7" s="15">
-        <v>5.7</v>
-      </c>
-      <c r="W7" s="15">
-        <v>50</v>
-      </c>
-      <c r="X7" s="15">
-        <v>23.1</v>
-      </c>
-      <c r="Y7" s="15">
-        <v>23.7</v>
-      </c>
-      <c r="Z7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15">
-      <c r="A8" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D8" s="14">
-        <v>17</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="F8" s="14">
-        <v>16517</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="14">
-        <v>55</v>
-      </c>
-      <c r="J8" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="14">
-        <v>82</v>
-      </c>
-      <c r="M8" s="14">
-        <v>43</v>
-      </c>
-      <c r="N8" s="14">
-        <v>415</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>87</v>
-      </c>
-      <c r="R8" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="S8" s="14">
+      <c r="Q44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="R44" s="15">
         <v>66</v>
       </c>
-      <c r="T8" s="14">
-        <v>80.5</v>
-      </c>
-      <c r="U8" s="14">
-        <v>73</v>
-      </c>
-      <c r="V8" s="14">
-        <v>6.3</v>
-      </c>
-      <c r="W8" s="14">
-        <v>47</v>
-      </c>
-      <c r="X8" s="14">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15">
-      <c r="A9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="15">
-        <v>23.4</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="15">
-        <v>26664</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I9" s="15">
-        <v>74</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="K9" s="15">
-        <v>29885</v>
-      </c>
-      <c r="L9" s="15">
-        <v>96</v>
-      </c>
-      <c r="M9" s="15">
-        <v>94</v>
-      </c>
-      <c r="N9" s="15">
-        <v>495</v>
-      </c>
-      <c r="O9" s="15">
-        <v>18</v>
-      </c>
-      <c r="P9" s="15">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>89</v>
-      </c>
-      <c r="R9" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="S9" s="15">
-        <v>62</v>
-      </c>
-      <c r="T9" s="15">
-        <v>79.3</v>
-      </c>
-      <c r="U9" s="15">
-        <v>62</v>
-      </c>
-      <c r="V9" s="15">
-        <v>6.9</v>
-      </c>
-      <c r="W9" s="15">
-        <v>77</v>
-      </c>
-      <c r="X9" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="Y9" s="15">
-        <v>4.5</v>
-      </c>
-      <c r="Z9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15">
-      <c r="A10" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="14">
-        <v>23.3</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="F10" s="14">
-        <v>33774</v>
-      </c>
-      <c r="G10" s="14">
-        <v>149864</v>
-      </c>
-      <c r="H10" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I10" s="14">
-        <v>74</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="K10" s="14">
-        <v>58430</v>
-      </c>
-      <c r="L10" s="14">
-        <v>95</v>
-      </c>
-      <c r="M10" s="14">
-        <v>82</v>
-      </c>
-      <c r="N10" s="14">
-        <v>501</v>
-      </c>
-      <c r="O10" s="14">
-        <v>19</v>
-      </c>
-      <c r="P10" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>93</v>
-      </c>
-      <c r="R10" s="14">
-        <v>2</v>
-      </c>
-      <c r="S10" s="14">
-        <v>85</v>
-      </c>
-      <c r="T10" s="14">
-        <v>81.5</v>
-      </c>
-      <c r="U10" s="14">
-        <v>70</v>
-      </c>
-      <c r="V10" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="W10" s="14">
-        <v>85</v>
-      </c>
-      <c r="X10" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15">
-      <c r="A11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="17">
-        <v>5.7</v>
-      </c>
-      <c r="D11" s="15">
-        <v>17</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="F11" s="15">
-        <v>23784</v>
-      </c>
-      <c r="G11" s="15">
-        <v>188627</v>
-      </c>
-      <c r="H11" s="15">
-        <v>5.4</v>
-      </c>
-      <c r="I11" s="15">
-        <v>74</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="K11" s="15">
-        <v>30720</v>
-      </c>
-      <c r="L11" s="15">
-        <v>95</v>
-      </c>
-      <c r="M11" s="15">
-        <v>91</v>
-      </c>
-      <c r="N11" s="15">
-        <v>526</v>
-      </c>
-      <c r="O11" s="15">
-        <v>18</v>
-      </c>
-      <c r="P11" s="15">
-        <v>5.9</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>86</v>
-      </c>
-      <c r="R11" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="S11" s="15">
-        <v>64</v>
-      </c>
-      <c r="T11" s="15">
-        <v>78.8</v>
-      </c>
-      <c r="U11" s="15">
-        <v>57</v>
-      </c>
-      <c r="V11" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="W11" s="15">
-        <v>79</v>
-      </c>
-      <c r="X11" s="15">
-        <v>1.9</v>
-      </c>
-      <c r="Y11" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Z11" s="15">
-        <v>14.98</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15">
-      <c r="A12" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="14">
-        <v>23.1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="F12" s="14">
-        <v>33471</v>
-      </c>
-      <c r="G12" s="14">
-        <v>230032</v>
-      </c>
-      <c r="H12" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I12" s="14">
-        <v>72</v>
-      </c>
-      <c r="J12" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="K12" s="14">
-        <v>46230</v>
-      </c>
-      <c r="L12" s="14">
-        <v>96</v>
-      </c>
-      <c r="M12" s="14">
-        <v>91</v>
-      </c>
-      <c r="N12" s="14">
-        <v>516</v>
-      </c>
-      <c r="O12" s="14">
-        <v>20</v>
-      </c>
-      <c r="P12" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>97</v>
-      </c>
-      <c r="R12" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S12" s="14">
-        <v>69</v>
-      </c>
-      <c r="T12" s="14">
-        <v>82.1</v>
-      </c>
-      <c r="U12" s="14">
-        <v>68</v>
-      </c>
-      <c r="V12" s="14">
-        <v>7.9</v>
-      </c>
-      <c r="W12" s="14">
-        <v>88</v>
-      </c>
-      <c r="X12" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="Y12" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>15.17</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15">
-      <c r="A13" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="15">
-        <v>20.7</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="F13" s="15">
-        <v>34375</v>
-      </c>
-      <c r="G13" s="15">
-        <v>298639</v>
-      </c>
-      <c r="H13" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="I13" s="15">
-        <v>65</v>
-      </c>
-      <c r="J13" s="15">
-        <v>2.9</v>
-      </c>
-      <c r="K13" s="15">
-        <v>45581</v>
-      </c>
-      <c r="L13" s="15">
-        <v>94</v>
-      </c>
-      <c r="M13" s="15">
-        <v>81</v>
-      </c>
-      <c r="N13" s="15">
-        <v>494</v>
-      </c>
-      <c r="O13" s="15">
-        <v>17</v>
-      </c>
-      <c r="P13" s="15">
-        <v>11.4</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>78</v>
-      </c>
-      <c r="R13" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="S13" s="15">
-        <v>75</v>
-      </c>
-      <c r="T13" s="15">
-        <v>82.9</v>
-      </c>
-      <c r="U13" s="15">
-        <v>67</v>
-      </c>
-      <c r="V13" s="15">
-        <v>6.7</v>
-      </c>
-      <c r="W13" s="15">
-        <v>74</v>
-      </c>
-      <c r="X13" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>7.7</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>16.2</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15">
-      <c r="A14" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="14">
-        <v>20</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="F14" s="14">
-        <v>38971</v>
-      </c>
-      <c r="G14" s="14">
-        <v>304317</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="I14" s="14">
-        <v>77</v>
-      </c>
-      <c r="J14" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="K14" s="14">
-        <v>53745</v>
-      </c>
-      <c r="L14" s="14">
-        <v>90</v>
-      </c>
-      <c r="M14" s="14">
-        <v>86</v>
-      </c>
-      <c r="N14" s="14">
-        <v>500</v>
-      </c>
-      <c r="O14" s="14">
-        <v>18</v>
-      </c>
-      <c r="P14" s="14">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>91</v>
-      </c>
-      <c r="R14" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="S14" s="14">
-        <v>76</v>
-      </c>
-      <c r="T14" s="14">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="U14" s="14">
-        <v>66</v>
-      </c>
-      <c r="V14" s="14">
-        <v>7.3</v>
-      </c>
-      <c r="W14" s="14">
-        <v>76</v>
-      </c>
-      <c r="X14" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>15.62</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15">
-      <c r="A15" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="D15" s="15">
-        <v>21.8</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="F15" s="15">
-        <v>20791</v>
-      </c>
-      <c r="G15" s="15">
-        <v>148323</v>
-      </c>
-      <c r="H15" s="15">
-        <v>21.7</v>
-      </c>
-      <c r="I15" s="15">
-        <v>56</v>
-      </c>
-      <c r="J15" s="15">
-        <v>10.8</v>
-      </c>
-      <c r="K15" s="15">
-        <v>27207</v>
-      </c>
-      <c r="L15" s="15">
-        <v>78</v>
-      </c>
-      <c r="M15" s="15">
-        <v>76</v>
-      </c>
-      <c r="N15" s="15">
-        <v>453</v>
-      </c>
-      <c r="O15" s="15">
-        <v>19</v>
-      </c>
-      <c r="P15" s="15">
-        <v>14.5</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>67</v>
-      </c>
-      <c r="R15" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="S15" s="15">
-        <v>58</v>
-      </c>
-      <c r="T15" s="15">
-        <v>81.7</v>
-      </c>
-      <c r="U15" s="15">
-        <v>79</v>
-      </c>
-      <c r="V15" s="15">
-        <v>5.8</v>
-      </c>
-      <c r="W15" s="15">
-        <v>69</v>
-      </c>
-      <c r="X15" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="15">
-        <v>4.5</v>
-      </c>
-      <c r="Z15" s="15">
-        <v>15.03</v>
-      </c>
-      <c r="AA15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15">
-      <c r="A16" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="D16" s="14">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="F16" s="14">
-        <v>21026</v>
-      </c>
-      <c r="G16" s="14">
-        <v>150296</v>
-      </c>
-      <c r="H16" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="I16" s="14">
-        <v>70</v>
-      </c>
-      <c r="J16" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="K16" s="14">
-        <v>25409</v>
-      </c>
-      <c r="L16" s="14">
-        <v>94</v>
-      </c>
-      <c r="M16" s="14">
-        <v>86</v>
-      </c>
-      <c r="N16" s="14">
-        <v>479</v>
-      </c>
-      <c r="O16" s="14">
-        <v>16</v>
-      </c>
-      <c r="P16" s="14">
-        <v>16.7</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>81</v>
-      </c>
-      <c r="R16" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="S16" s="14">
-        <v>70</v>
-      </c>
-      <c r="T16" s="14">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="U16" s="14">
-        <v>58</v>
-      </c>
-      <c r="V16" s="14">
-        <v>6</v>
-      </c>
-      <c r="W16" s="14">
-        <v>74</v>
-      </c>
-      <c r="X16" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>15.08</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15">
-      <c r="A17" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="S44" s="15">
+        <v>64.2</v>
+      </c>
+      <c r="T44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="U44" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V44" s="15">
+        <v>40</v>
+      </c>
+      <c r="W44" s="15">
+        <v>13.7</v>
+      </c>
+      <c r="X44" s="15">
+        <v>15.4</v>
+      </c>
+      <c r="Y44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z44" s="13">
         <v>0</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="15">
-        <v>1</v>
-      </c>
-      <c r="I17" s="15">
-        <v>78</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="K17" s="15">
-        <v>67488</v>
-      </c>
-      <c r="L17" s="15">
-        <v>98</v>
-      </c>
-      <c r="M17" s="15">
-        <v>76</v>
-      </c>
-      <c r="N17" s="15">
-        <v>481</v>
-      </c>
-      <c r="O17" s="15">
-        <v>19</v>
-      </c>
-      <c r="P17" s="15">
-        <v>6.4</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>97</v>
-      </c>
-      <c r="R17" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="S17" s="15">
-        <v>81</v>
-      </c>
-      <c r="T17" s="15">
-        <v>83.2</v>
-      </c>
-      <c r="U17" s="15">
-        <v>77</v>
-      </c>
-      <c r="V17" s="15">
-        <v>7.6</v>
-      </c>
-      <c r="W17" s="15">
-        <v>85</v>
-      </c>
-      <c r="X17" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="Y17" s="15">
-        <v>11.7</v>
-      </c>
-      <c r="Z17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15">
-      <c r="A18" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="14">
-        <v>20.6</v>
-      </c>
-      <c r="E18" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="F18" s="14">
-        <v>29488</v>
-      </c>
-      <c r="G18" s="14">
-        <v>370341</v>
-      </c>
-      <c r="H18" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="I18" s="14">
-        <v>68</v>
-      </c>
-      <c r="J18" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="K18" s="14">
-        <v>49474</v>
-      </c>
-      <c r="L18" s="14">
-        <v>96</v>
-      </c>
-      <c r="M18" s="14">
-        <v>85</v>
-      </c>
-      <c r="N18" s="14">
-        <v>505</v>
-      </c>
-      <c r="O18" s="14">
-        <v>18</v>
-      </c>
-      <c r="P18" s="14">
-        <v>7.8</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>80</v>
-      </c>
-      <c r="R18" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="S18" s="14">
-        <v>63</v>
-      </c>
-      <c r="T18" s="14">
-        <v>82.8</v>
-      </c>
-      <c r="U18" s="14">
-        <v>84</v>
-      </c>
-      <c r="V18" s="14">
-        <v>7</v>
-      </c>
-      <c r="W18" s="14">
-        <v>76</v>
-      </c>
-      <c r="X18" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Y18" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="Z18" s="14">
-        <v>14.54</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15">
-      <c r="A19" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="15">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I19" s="15">
-        <v>67</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="K19" s="15">
-        <v>39322</v>
-      </c>
-      <c r="L19" s="15">
-        <v>95</v>
-      </c>
-      <c r="M19" s="15">
-        <v>88</v>
-      </c>
-      <c r="N19" s="15">
-        <v>465</v>
-      </c>
-      <c r="O19" s="15">
-        <v>16</v>
-      </c>
-      <c r="P19" s="15">
-        <v>19.7</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>77</v>
-      </c>
-      <c r="R19" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="S19" s="15">
-        <v>67</v>
-      </c>
-      <c r="T19" s="15">
-        <v>82.9</v>
-      </c>
-      <c r="U19" s="15">
-        <v>74</v>
-      </c>
-      <c r="V19" s="15">
-        <v>7.2</v>
-      </c>
-      <c r="W19" s="15">
-        <v>80</v>
-      </c>
-      <c r="X19" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="Y19" s="15">
-        <v>14.1</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA19" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15">
-      <c r="A20" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="D20" s="14">
-        <v>22.5</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="F20" s="14">
-        <v>29431</v>
-      </c>
-      <c r="G20" s="14">
-        <v>295020</v>
-      </c>
-      <c r="H20" s="14">
-        <v>8.6</v>
-      </c>
-      <c r="I20" s="14">
-        <v>58</v>
-      </c>
-      <c r="J20" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="K20" s="14">
-        <v>37769</v>
-      </c>
-      <c r="L20" s="14">
-        <v>89</v>
-      </c>
-      <c r="M20" s="14">
-        <v>63</v>
-      </c>
-      <c r="N20" s="14">
-        <v>477</v>
-      </c>
-      <c r="O20" s="14">
-        <v>17</v>
-      </c>
-      <c r="P20" s="14">
-        <v>15.9</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>77</v>
-      </c>
-      <c r="R20" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="S20" s="14">
-        <v>73</v>
-      </c>
-      <c r="T20" s="14">
-        <v>83.6</v>
-      </c>
-      <c r="U20" s="14">
-        <v>73</v>
-      </c>
-      <c r="V20" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="W20" s="14">
-        <v>73</v>
-      </c>
-      <c r="X20" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Y20" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="Z20" s="14">
-        <v>16.47</v>
-      </c>
-      <c r="AA20" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15">
-      <c r="A21" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="17">
-        <v>6.4</v>
-      </c>
-      <c r="D21" s="15">
-        <v>21.8</v>
-      </c>
-      <c r="E21" s="15">
-        <v>1.9</v>
-      </c>
-      <c r="F21" s="15">
-        <v>28872</v>
-      </c>
-      <c r="G21" s="15">
-        <v>294735</v>
-      </c>
-      <c r="H21" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="I21" s="15">
-        <v>77</v>
-      </c>
-      <c r="J21" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="K21" s="15">
-        <v>38515</v>
-      </c>
-      <c r="L21" s="15">
-        <v>89</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" s="15">
-        <v>520</v>
-      </c>
-      <c r="O21" s="15">
-        <v>16</v>
-      </c>
-      <c r="P21" s="15">
-        <v>13.7</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>87</v>
-      </c>
-      <c r="R21" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="S21" s="15">
-        <v>53</v>
-      </c>
-      <c r="T21" s="15">
-        <v>84.4</v>
-      </c>
-      <c r="U21" s="15">
-        <v>37</v>
-      </c>
-      <c r="V21" s="15">
-        <v>6.1</v>
-      </c>
-      <c r="W21" s="15">
-        <v>77</v>
-      </c>
-      <c r="X21" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="Y21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z21" s="15">
-        <v>14.1</v>
-      </c>
-      <c r="AA21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15">
-      <c r="A22" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="D22" s="14">
-        <v>14.7</v>
-      </c>
-      <c r="E22" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="F22" s="14">
-        <v>24590</v>
-      </c>
-      <c r="G22" s="14">
-        <v>362340</v>
-      </c>
-      <c r="H22" s="14">
-        <v>2.9</v>
-      </c>
-      <c r="I22" s="14">
-        <v>66</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <v>41960</v>
-      </c>
-      <c r="L22" s="14">
-        <v>80</v>
-      </c>
-      <c r="M22" s="14">
-        <v>89</v>
-      </c>
-      <c r="N22" s="14">
-        <v>520</v>
-      </c>
-      <c r="O22" s="14">
-        <v>17</v>
-      </c>
-      <c r="P22" s="14">
-        <v>27.3</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>82</v>
-      </c>
-      <c r="R22" s="14">
-        <v>2.9</v>
-      </c>
-      <c r="S22" s="14">
-        <v>77</v>
-      </c>
-      <c r="T22" s="14">
-        <v>83.3</v>
-      </c>
-      <c r="U22" s="14">
-        <v>34</v>
-      </c>
-      <c r="V22" s="14">
-        <v>5.8</v>
-      </c>
-      <c r="W22" s="14">
-        <v>82</v>
-      </c>
-      <c r="X22" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="Y22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z22" s="14">
-        <v>14.83</v>
-      </c>
-      <c r="AA22" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15">
-      <c r="A23" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="17">
-        <v>11.2</v>
-      </c>
-      <c r="D23" s="15">
-        <v>20.8</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="F23" s="15">
-        <v>19783</v>
-      </c>
-      <c r="G23" s="15">
-        <v>79245</v>
-      </c>
-      <c r="H23" s="15">
-        <v>6.3</v>
-      </c>
-      <c r="I23" s="15">
-        <v>72</v>
-      </c>
-      <c r="J23" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K23" s="15">
-        <v>29876</v>
-      </c>
-      <c r="L23" s="15">
-        <v>92</v>
-      </c>
-      <c r="M23" s="15">
-        <v>89</v>
-      </c>
-      <c r="N23" s="15">
-        <v>487</v>
-      </c>
-      <c r="O23" s="15">
-        <v>18</v>
-      </c>
-      <c r="P23" s="15">
-        <v>12.7</v>
-      </c>
-      <c r="Q23" s="15">
-        <v>83</v>
-      </c>
-      <c r="R23" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S23" s="15">
-        <v>55</v>
-      </c>
-      <c r="T23" s="15">
-        <v>75.5</v>
-      </c>
-      <c r="U23" s="15">
-        <v>47</v>
-      </c>
-      <c r="V23" s="15">
-        <v>6.2</v>
-      </c>
-      <c r="W23" s="15">
-        <v>72</v>
-      </c>
-      <c r="X23" s="15">
-        <v>3.7</v>
-      </c>
-      <c r="Y23" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="Z23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15">
-      <c r="A24" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="16">
-        <v>11.8</v>
-      </c>
-      <c r="D24" s="14">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="F24" s="14">
-        <v>26976</v>
-      </c>
-      <c r="G24" s="14">
-        <v>182039</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="14">
-        <v>72</v>
-      </c>
-      <c r="J24" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="K24" s="14">
-        <v>31811</v>
-      </c>
-      <c r="L24" s="14">
-        <v>89</v>
-      </c>
-      <c r="M24" s="14">
-        <v>94</v>
-      </c>
-      <c r="N24" s="14">
-        <v>480</v>
-      </c>
-      <c r="O24" s="14">
-        <v>18</v>
-      </c>
-      <c r="P24" s="14">
-        <v>10.5</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>83</v>
-      </c>
-      <c r="R24" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="S24" s="14">
-        <v>57</v>
-      </c>
-      <c r="T24" s="14">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="U24" s="14">
-        <v>46</v>
-      </c>
-      <c r="V24" s="14">
-        <v>6.4</v>
-      </c>
-      <c r="W24" s="14">
-        <v>62</v>
-      </c>
-      <c r="X24" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="Y24" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA24" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="15">
-      <c r="A25" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="15">
-        <v>20.7</v>
-      </c>
-      <c r="E25" s="15">
-        <v>2</v>
-      </c>
-      <c r="F25" s="15">
-        <v>44773</v>
-      </c>
-      <c r="G25" s="15">
-        <v>941162</v>
-      </c>
-      <c r="H25" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I25" s="15">
-        <v>67</v>
-      </c>
-      <c r="J25" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="K25" s="15">
-        <v>65854</v>
-      </c>
-      <c r="L25" s="15">
-        <v>91</v>
-      </c>
-      <c r="M25" s="15">
-        <v>74</v>
-      </c>
-      <c r="N25" s="15">
-        <v>477</v>
-      </c>
-      <c r="O25" s="15">
-        <v>15</v>
-      </c>
-      <c r="P25" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>85</v>
-      </c>
-      <c r="R25" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="S25" s="15">
-        <v>90</v>
-      </c>
-      <c r="T25" s="15">
-        <v>82.7</v>
-      </c>
-      <c r="U25" s="15">
-        <v>72</v>
-      </c>
-      <c r="V25" s="15">
-        <v>7.4</v>
-      </c>
-      <c r="W25" s="15">
-        <v>87</v>
-      </c>
-      <c r="X25" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="Y25" s="15">
-        <v>2.8</v>
-      </c>
-      <c r="Z25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA25" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="15">
-      <c r="A26" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="16">
-        <v>25.9</v>
-      </c>
-      <c r="D26" s="14">
-        <v>17.8</v>
-      </c>
-      <c r="E26" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F26" s="14">
-        <v>16269</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="14">
-        <v>4</v>
-      </c>
-      <c r="I26" s="14">
-        <v>59</v>
-      </c>
-      <c r="J26" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="K26" s="14">
-        <v>16230</v>
-      </c>
-      <c r="L26" s="14">
-        <v>77</v>
-      </c>
-      <c r="M26" s="14">
-        <v>42</v>
-      </c>
-      <c r="N26" s="14">
-        <v>416</v>
-      </c>
-      <c r="O26" s="14">
-        <v>15</v>
-      </c>
-      <c r="P26" s="14">
-        <v>20.3</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>75</v>
-      </c>
-      <c r="R26" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="S26" s="14">
-        <v>63</v>
-      </c>
-      <c r="T26" s="14">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="U26" s="14">
-        <v>66</v>
-      </c>
-      <c r="V26" s="14">
-        <v>6</v>
-      </c>
-      <c r="W26" s="14">
-        <v>42</v>
-      </c>
-      <c r="X26" s="14">
-        <v>26.8</v>
-      </c>
-      <c r="Y26" s="14">
-        <v>27</v>
-      </c>
-      <c r="Z26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA26" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="15">
-      <c r="A27" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="15">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E27" s="15">
-        <v>2</v>
-      </c>
-      <c r="F27" s="15">
-        <v>34984</v>
-      </c>
-      <c r="G27" s="15">
-        <v>248599</v>
-      </c>
-      <c r="H27" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="I27" s="15">
-        <v>78</v>
-      </c>
-      <c r="J27" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="K27" s="15">
-        <v>58828</v>
-      </c>
-      <c r="L27" s="15">
-        <v>94</v>
-      </c>
-      <c r="M27" s="15">
-        <v>81</v>
-      </c>
-      <c r="N27" s="15">
-        <v>502</v>
-      </c>
-      <c r="O27" s="15">
-        <v>19</v>
-      </c>
-      <c r="P27" s="15">
-        <v>12.2</v>
-      </c>
-      <c r="Q27" s="15">
-        <v>91</v>
-      </c>
-      <c r="R27" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="S27" s="15">
-        <v>79</v>
-      </c>
-      <c r="T27" s="15">
-        <v>82.2</v>
-      </c>
-      <c r="U27" s="15">
-        <v>75</v>
-      </c>
-      <c r="V27" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="W27" s="15">
-        <v>83</v>
-      </c>
-      <c r="X27" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="Y27" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="Z27" s="15">
-        <v>15.45</v>
-      </c>
-      <c r="AA27" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="15">
-      <c r="A28" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="14">
-        <v>25</v>
-      </c>
-      <c r="E28" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="F28" s="14">
-        <v>39024</v>
-      </c>
-      <c r="G28" s="14">
-        <v>514162</v>
-      </c>
-      <c r="H28" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I28" s="14">
-        <v>77</v>
-      </c>
-      <c r="J28" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="K28" s="14">
-        <v>45269</v>
-      </c>
-      <c r="L28" s="14">
-        <v>95</v>
-      </c>
-      <c r="M28" s="14">
-        <v>81</v>
-      </c>
-      <c r="N28" s="14">
-        <v>503</v>
-      </c>
-      <c r="O28" s="14">
-        <v>18</v>
-      </c>
-      <c r="P28" s="14">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>85</v>
-      </c>
-      <c r="R28" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="S28" s="14">
-        <v>82</v>
-      </c>
-      <c r="T28" s="14">
-        <v>82.1</v>
-      </c>
-      <c r="U28" s="14">
-        <v>86</v>
-      </c>
-      <c r="V28" s="14">
-        <v>7.3</v>
-      </c>
-      <c r="W28" s="14">
-        <v>66</v>
-      </c>
-      <c r="X28" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="Y28" s="14">
-        <v>14</v>
-      </c>
-      <c r="Z28" s="14">
-        <v>14.87</v>
-      </c>
-      <c r="AA28" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="15">
-      <c r="A29" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0</v>
-      </c>
-      <c r="D29" s="15">
-        <v>17.7</v>
-      </c>
-      <c r="E29" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="F29" s="15">
-        <v>39144</v>
-      </c>
-      <c r="G29" s="15">
-        <v>268358</v>
-      </c>
-      <c r="H29" s="15">
-        <v>2.8</v>
-      </c>
-      <c r="I29" s="15">
-        <v>75</v>
-      </c>
-      <c r="J29" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="K29" s="15">
-        <v>55780</v>
-      </c>
-      <c r="L29" s="15">
-        <v>96</v>
-      </c>
-      <c r="M29" s="15">
-        <v>82</v>
-      </c>
-      <c r="N29" s="15">
-        <v>497</v>
-      </c>
-      <c r="O29" s="15">
-        <v>18</v>
-      </c>
-      <c r="P29" s="15">
-        <v>6.7</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>98</v>
-      </c>
-      <c r="R29" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S29" s="15">
-        <v>78</v>
-      </c>
-      <c r="T29" s="15">
-        <v>83</v>
-      </c>
-      <c r="U29" s="15">
-        <v>75</v>
-      </c>
-      <c r="V29" s="15">
-        <v>7.3</v>
-      </c>
-      <c r="W29" s="15">
-        <v>93</v>
-      </c>
-      <c r="X29" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="Y29" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="Z29" s="15">
-        <v>15.67</v>
-      </c>
-      <c r="AA29" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="15">
-      <c r="A30" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D30" s="14">
-        <v>21.2</v>
-      </c>
-      <c r="E30" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F30" s="14">
-        <v>23675</v>
-      </c>
-      <c r="G30" s="14">
-        <v>233221</v>
-      </c>
-      <c r="H30" s="14">
-        <v>5</v>
-      </c>
-      <c r="I30" s="14">
-        <v>69</v>
-      </c>
-      <c r="J30" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="K30" s="14">
-        <v>32527</v>
-      </c>
-      <c r="L30" s="14">
-        <v>94</v>
-      </c>
-      <c r="M30" s="14">
-        <v>93</v>
-      </c>
-      <c r="N30" s="14">
-        <v>513</v>
-      </c>
-      <c r="O30" s="14">
-        <v>18</v>
-      </c>
-      <c r="P30" s="14">
-        <v>22.8</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>82</v>
-      </c>
-      <c r="R30" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="S30" s="14">
-        <v>68</v>
-      </c>
-      <c r="T30" s="14">
-        <v>78</v>
-      </c>
-      <c r="U30" s="14">
-        <v>60</v>
-      </c>
-      <c r="V30" s="14">
-        <v>6.1</v>
-      </c>
-      <c r="W30" s="14">
-        <v>71</v>
-      </c>
-      <c r="X30" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Y30" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="Z30" s="14">
-        <v>14.68</v>
-      </c>
-      <c r="AA30" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="15">
-      <c r="A31" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="D31" s="15">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E31" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="F31" s="15">
-        <v>24877</v>
-      </c>
-      <c r="G31" s="15">
-        <v>255303</v>
-      </c>
-      <c r="H31" s="15">
-        <v>8.1</v>
-      </c>
-      <c r="I31" s="15">
-        <v>69</v>
-      </c>
-      <c r="J31" s="15">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K31" s="15">
-        <v>28410</v>
-      </c>
-      <c r="L31" s="15">
-        <v>87</v>
-      </c>
-      <c r="M31" s="15">
-        <v>55</v>
-      </c>
-      <c r="N31" s="15">
-        <v>492</v>
-      </c>
-      <c r="O31" s="15">
-        <v>17</v>
-      </c>
-      <c r="P31" s="15">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>89</v>
-      </c>
-      <c r="R31" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="S31" s="15">
-        <v>49</v>
-      </c>
-      <c r="T31" s="15">
-        <v>81.8</v>
-      </c>
-      <c r="U31" s="15">
-        <v>50</v>
-      </c>
-      <c r="V31" s="15">
-        <v>5.8</v>
-      </c>
-      <c r="W31" s="15">
-        <v>83</v>
-      </c>
-      <c r="X31" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="Y31" s="15">
-        <v>5.6</v>
-      </c>
-      <c r="Z31" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="15">
-      <c r="A32" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="D32" s="14">
-        <v>27.4</v>
-      </c>
-      <c r="E32" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F32" s="14">
-        <v>21149</v>
-      </c>
-      <c r="G32" s="14">
-        <v>171425</v>
-      </c>
-      <c r="H32" s="14">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I32" s="14">
-        <v>68</v>
-      </c>
-      <c r="J32" s="14">
-        <v>3</v>
-      </c>
-      <c r="K32" s="14">
-        <v>23619</v>
-      </c>
-      <c r="L32" s="14">
-        <v>95</v>
-      </c>
-      <c r="M32" s="14">
-        <v>92</v>
-      </c>
-      <c r="N32" s="14">
-        <v>469</v>
-      </c>
-      <c r="O32" s="14">
-        <v>16</v>
-      </c>
-      <c r="P32" s="14">
-        <v>18.5</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>81</v>
-      </c>
-      <c r="R32" s="14">
-        <v>3</v>
-      </c>
-      <c r="S32" s="14">
-        <v>66</v>
-      </c>
-      <c r="T32" s="14">
-        <v>77.8</v>
-      </c>
-      <c r="U32" s="14">
-        <v>65</v>
-      </c>
-      <c r="V32" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="W32" s="14">
-        <v>76</v>
-      </c>
-      <c r="X32" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="Y32" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="Z32" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA32" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15">
-      <c r="A33" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="D33" s="15">
-        <v>18.2</v>
-      </c>
-      <c r="E33" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="F33" s="15">
-        <v>25250</v>
-      </c>
-      <c r="G33" s="15">
-        <v>233286</v>
-      </c>
-      <c r="H33" s="15">
-        <v>5.9</v>
-      </c>
-      <c r="I33" s="15">
-        <v>71</v>
-      </c>
-      <c r="J33" s="15">
-        <v>1.9</v>
-      </c>
-      <c r="K33" s="15">
-        <v>41445</v>
-      </c>
-      <c r="L33" s="15">
-        <v>95</v>
-      </c>
-      <c r="M33" s="15">
-        <v>90</v>
-      </c>
-      <c r="N33" s="15">
-        <v>504</v>
-      </c>
-      <c r="O33" s="15">
-        <v>18</v>
-      </c>
-      <c r="P33" s="15">
-        <v>17</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>93</v>
-      </c>
-      <c r="R33" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="S33" s="15">
-        <v>53</v>
-      </c>
-      <c r="T33" s="15">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="U33" s="15">
-        <v>67</v>
-      </c>
-      <c r="V33" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="W33" s="15">
-        <v>91</v>
-      </c>
-      <c r="X33" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="Y33" s="15">
-        <v>5.6</v>
-      </c>
-      <c r="Z33" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA33" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="15">
-      <c r="A34" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="D34" s="14">
-        <v>21.7</v>
-      </c>
-      <c r="E34" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="F34" s="14">
-        <v>27155</v>
-      </c>
-      <c r="G34" s="14">
-        <v>366534</v>
-      </c>
-      <c r="H34" s="14">
-        <v>15.8</v>
-      </c>
-      <c r="I34" s="14">
-        <v>62</v>
-      </c>
-      <c r="J34" s="14">
-        <v>5</v>
-      </c>
-      <c r="K34" s="14">
-        <v>37922</v>
-      </c>
-      <c r="L34" s="14">
-        <v>93</v>
-      </c>
-      <c r="M34" s="14">
-        <v>63</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O34" s="14">
-        <v>18</v>
-      </c>
-      <c r="P34" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>76</v>
-      </c>
-      <c r="R34" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="S34" s="14">
-        <v>72</v>
-      </c>
-      <c r="T34" s="14">
-        <v>83.9</v>
-      </c>
-      <c r="U34" s="14">
-        <v>75</v>
-      </c>
-      <c r="V34" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="W34" s="14">
-        <v>80</v>
-      </c>
-      <c r="X34" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="Y34" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="Z34" s="14">
-        <v>15.75</v>
-      </c>
-      <c r="AA34" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="15">
-      <c r="A35" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0</v>
-      </c>
-      <c r="D35" s="15">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="E35" s="15">
-        <v>1.7</v>
-      </c>
-      <c r="F35" s="15">
-        <v>33730</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I35" s="15">
-        <v>75</v>
-      </c>
-      <c r="J35" s="15">
-        <v>1</v>
-      </c>
-      <c r="K35" s="15">
-        <v>47020</v>
-      </c>
-      <c r="L35" s="15">
-        <v>94</v>
-      </c>
-      <c r="M35" s="15">
-        <v>84</v>
-      </c>
-      <c r="N35" s="15">
-        <v>503</v>
-      </c>
-      <c r="O35" s="15">
-        <v>20</v>
-      </c>
-      <c r="P35" s="15">
-        <v>5.8</v>
-      </c>
-      <c r="Q35" s="15">
-        <v>97</v>
-      </c>
-      <c r="R35" s="15">
-        <v>2</v>
-      </c>
-      <c r="S35" s="15">
-        <v>87</v>
-      </c>
-      <c r="T35" s="15">
-        <v>83.2</v>
-      </c>
-      <c r="U35" s="15">
-        <v>76</v>
-      </c>
-      <c r="V35" s="15">
-        <v>7.3</v>
-      </c>
-      <c r="W35" s="15">
-        <v>79</v>
-      </c>
-      <c r="X35" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y35" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="Z35" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA35" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="15">
-      <c r="A36" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="16">
-        <v>0</v>
-      </c>
-      <c r="D36" s="14">
-        <v>21.4</v>
-      </c>
-      <c r="E36" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="F36" s="14">
-        <v>39697</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="14">
-        <v>80</v>
-      </c>
-      <c r="J36" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="K36" s="14">
-        <v>64824</v>
-      </c>
-      <c r="L36" s="14">
-        <v>94</v>
-      </c>
-      <c r="M36" s="14">
-        <v>89</v>
-      </c>
-      <c r="N36" s="14">
-        <v>498</v>
-      </c>
-      <c r="O36" s="14">
-        <v>17</v>
-      </c>
-      <c r="P36" s="14">
-        <v>10.1</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>96</v>
-      </c>
-      <c r="R36" s="14">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S36" s="14">
-        <v>45</v>
-      </c>
-      <c r="T36" s="14">
-        <v>84</v>
-      </c>
-      <c r="U36" s="14">
-        <v>81</v>
-      </c>
-      <c r="V36" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="W36" s="14">
-        <v>86</v>
-      </c>
-      <c r="X36" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="Y36" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="Z36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA36" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15">
-      <c r="A37" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D37" s="15">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E37" s="15">
-        <v>1</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="15">
-        <v>13</v>
-      </c>
-      <c r="I37" s="15">
-        <v>48</v>
-      </c>
-      <c r="J37" s="15">
-        <v>3.3</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="15">
-        <v>85</v>
-      </c>
-      <c r="M37" s="15">
-        <v>42</v>
-      </c>
-      <c r="N37" s="15">
-        <v>462</v>
-      </c>
-      <c r="O37" s="15">
-        <v>19</v>
-      </c>
-      <c r="P37" s="15">
-        <v>27.1</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>62</v>
-      </c>
-      <c r="R37" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="S37" s="15">
-        <v>86</v>
-      </c>
-      <c r="T37" s="15">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="U37" s="15">
-        <v>67</v>
-      </c>
-      <c r="V37" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="W37" s="15">
-        <v>59</v>
-      </c>
-      <c r="X37" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="15">
-        <v>25</v>
-      </c>
-      <c r="Z37" s="15">
-        <v>14.61</v>
-      </c>
-      <c r="AA37" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="15">
-      <c r="A38" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="14">
-        <v>23.2</v>
-      </c>
-      <c r="E38" s="14">
-        <v>2</v>
-      </c>
-      <c r="F38" s="14">
-        <v>33049</v>
-      </c>
-      <c r="G38" s="14">
-        <v>524422</v>
-      </c>
-      <c r="H38" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="I38" s="14">
-        <v>75</v>
-      </c>
-      <c r="J38" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="K38" s="14">
-        <v>47147</v>
-      </c>
-      <c r="L38" s="14">
-        <v>93</v>
-      </c>
-      <c r="M38" s="14">
-        <v>82</v>
-      </c>
-      <c r="N38" s="14">
-        <v>503</v>
-      </c>
-      <c r="O38" s="14">
-        <v>17</v>
-      </c>
-      <c r="P38" s="14">
-        <v>10.1</v>
-      </c>
-      <c r="Q38" s="14">
-        <v>82</v>
-      </c>
-      <c r="R38" s="14">
-        <v>3.1</v>
-      </c>
-      <c r="S38" s="14">
-        <v>68</v>
-      </c>
-      <c r="T38" s="14">
-        <v>81.3</v>
-      </c>
-      <c r="U38" s="14">
-        <v>73</v>
-      </c>
-      <c r="V38" s="14">
-        <v>6.8</v>
-      </c>
-      <c r="W38" s="14">
-        <v>78</v>
-      </c>
-      <c r="X38" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="Y38" s="14">
-        <v>10.8</v>
-      </c>
-      <c r="Z38" s="14">
-        <v>14.94</v>
-      </c>
-      <c r="AA38" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="15">
-      <c r="A39" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="15">
-        <v>18.3</v>
-      </c>
-      <c r="E39" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="F39" s="15">
-        <v>51147</v>
-      </c>
-      <c r="G39" s="15">
-        <v>684500</v>
-      </c>
-      <c r="H39" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="I39" s="15">
-        <v>67</v>
-      </c>
-      <c r="J39" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="K39" s="15">
-        <v>69392</v>
-      </c>
-      <c r="L39" s="15">
-        <v>94</v>
-      </c>
-      <c r="M39" s="15">
-        <v>92</v>
-      </c>
-      <c r="N39" s="15">
-        <v>495</v>
-      </c>
-      <c r="O39" s="15">
-        <v>17</v>
-      </c>
-      <c r="P39" s="15">
-        <v>7.7</v>
-      </c>
-      <c r="Q39" s="15">
-        <v>88</v>
-      </c>
-      <c r="R39" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="S39" s="15">
-        <v>65</v>
-      </c>
-      <c r="T39" s="15">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="U39" s="15">
-        <v>88</v>
-      </c>
-      <c r="V39" s="15">
-        <v>7</v>
-      </c>
-      <c r="W39" s="15">
-        <v>78</v>
-      </c>
-      <c r="X39" s="15">
-        <v>6</v>
-      </c>
-      <c r="Y39" s="15">
-        <v>10.4</v>
-      </c>
-      <c r="Z39" s="15">
-        <v>14.57</v>
-      </c>
-      <c r="AA39" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="15">
-      <c r="A40" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="16">
-        <v>3</v>
-      </c>
-      <c r="D40" s="14">
-        <v>20.5</v>
-      </c>
-      <c r="E40" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="F40" s="14">
-        <v>30490</v>
-      </c>
-      <c r="G40" s="14">
-        <v>323960</v>
-      </c>
-      <c r="H40" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I40" s="14">
-        <v>66</v>
-      </c>
-      <c r="J40" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="K40" s="14">
-        <v>49165</v>
-      </c>
-      <c r="L40" s="14">
-        <v>91</v>
-      </c>
-      <c r="M40" s="14">
-        <v>79</v>
-      </c>
-      <c r="N40" s="14">
-        <v>488</v>
-      </c>
-      <c r="O40" s="14">
-        <v>18</v>
-      </c>
-      <c r="P40" s="14">
-        <v>14</v>
-      </c>
-      <c r="Q40" s="14">
-        <v>84</v>
-      </c>
-      <c r="R40" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="S40" s="14">
-        <v>69</v>
-      </c>
-      <c r="T40" s="14">
-        <v>81</v>
-      </c>
-      <c r="U40" s="14">
-        <v>68</v>
-      </c>
-      <c r="V40" s="14">
-        <v>6.7</v>
-      </c>
-      <c r="W40" s="14">
-        <v>74</v>
-      </c>
-      <c r="X40" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="Y40" s="14">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Z40" s="14">
-        <v>15.07</v>
-      </c>
-      <c r="AA40" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15">
-      <c r="A41" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="17">
-        <v>6.7</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="15">
-        <v>57</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L41" s="15">
-        <v>83</v>
-      </c>
-      <c r="M41" s="15">
-        <v>57</v>
-      </c>
-      <c r="N41" s="15">
-        <v>400</v>
-      </c>
-      <c r="O41" s="15">
-        <v>16</v>
-      </c>
-      <c r="P41" s="15">
-        <v>11.7</v>
-      </c>
-      <c r="Q41" s="15">
-        <v>70</v>
-      </c>
-      <c r="R41" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S41" s="15">
-        <v>80</v>
-      </c>
-      <c r="T41" s="15">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="U41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V41" s="15">
-        <v>6.1</v>
-      </c>
-      <c r="W41" s="15">
-        <v>45</v>
-      </c>
-      <c r="X41" s="15">
-        <v>19</v>
-      </c>
-      <c r="Y41" s="15">
-        <v>5.6</v>
-      </c>
-      <c r="Z41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15">
-      <c r="A42" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="16">
-        <v>13.8</v>
-      </c>
-      <c r="D42" s="14">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E42" s="14">
-        <v>1</v>
-      </c>
-      <c r="F42" s="14">
-        <v>19546</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="14">
-        <v>70</v>
-      </c>
-      <c r="J42" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L42" s="14">
-        <v>89</v>
-      </c>
-      <c r="M42" s="14">
-        <v>95</v>
-      </c>
-      <c r="N42" s="14">
-        <v>481</v>
-      </c>
-      <c r="O42" s="14">
-        <v>16</v>
-      </c>
-      <c r="P42" s="14">
-        <v>11.8</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>62</v>
-      </c>
-      <c r="R42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S42" s="14">
-        <v>68</v>
-      </c>
-      <c r="T42" s="14">
-        <v>73.2</v>
-      </c>
-      <c r="U42" s="14">
-        <v>43</v>
-      </c>
-      <c r="V42" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="W42" s="14">
-        <v>64</v>
-      </c>
-      <c r="X42" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="Y42" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Z42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA42" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="15">
-      <c r="A43" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="17">
-        <v>35.9</v>
-      </c>
-      <c r="D43" s="15">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="15">
-        <v>9338</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" s="15">
-        <v>39</v>
-      </c>
-      <c r="J43" s="15">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="15">
-        <v>89</v>
-      </c>
-      <c r="M43" s="15">
-        <v>48</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" s="15">
-        <v>28.5</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>72</v>
-      </c>
-      <c r="R43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S43" s="15">
-        <v>66</v>
-      </c>
-      <c r="T43" s="15">
-        <v>64.2</v>
-      </c>
-      <c r="U43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V43" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="W43" s="15">
-        <v>40</v>
-      </c>
-      <c r="X43" s="15">
-        <v>13.7</v>
-      </c>
-      <c r="Y43" s="15">
-        <v>15.4</v>
-      </c>
-      <c r="Z43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA43" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="14.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:Z43">
+  <conditionalFormatting sqref="B3:Y44">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="..">
-      <formula>NOT(ISERROR(SEARCH("..",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("..",B3)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>".."</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D1" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E1" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F1" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G1" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H1" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="I1" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="J1" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="K1" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="L1" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="M1" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="N1" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="O1" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="P1" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="Q1" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="R1" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="S1" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="T1" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="U1" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="V1" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="W1" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="X1" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="Y1" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="Z1" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B19" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E1" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F1" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G1" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H1" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="I1" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="J1" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="K1" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="L1" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="M1" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="N1" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="O1" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="P1" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="Q1" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="R1" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="S1" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="T1" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="U1" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="V1" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="W1" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="X1" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="Y1" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A15" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="A20" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId27"/>
